--- a/AAII_Financials/Quarterly/VEDL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VEDL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6498000</v>
+        <v>6118500</v>
       </c>
       <c r="E8" s="3">
-        <v>6264500</v>
+        <v>5898600</v>
       </c>
       <c r="F8" s="3">
-        <v>7192800</v>
+        <v>6772700</v>
       </c>
       <c r="G8" s="3">
-        <v>5577200</v>
+        <v>5251500</v>
       </c>
       <c r="H8" s="3">
-        <v>5853600</v>
+        <v>5511700</v>
       </c>
       <c r="I8" s="3">
-        <v>4216000</v>
+        <v>3969800</v>
       </c>
       <c r="J8" s="3">
-        <v>4304700</v>
+        <v>4053300</v>
       </c>
       <c r="K8" s="3">
         <v>4813600</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5316800</v>
+        <v>5006300</v>
       </c>
       <c r="E9" s="3">
-        <v>4902000</v>
+        <v>4615700</v>
       </c>
       <c r="F9" s="3">
-        <v>5028600</v>
+        <v>4734900</v>
       </c>
       <c r="G9" s="3">
-        <v>4260500</v>
+        <v>4011700</v>
       </c>
       <c r="H9" s="3">
-        <v>4190400</v>
+        <v>3945700</v>
       </c>
       <c r="I9" s="3">
-        <v>3306800</v>
+        <v>3113700</v>
       </c>
       <c r="J9" s="3">
-        <v>8497500</v>
+        <v>8001200</v>
       </c>
       <c r="K9" s="3">
         <v>3911700</v>
@@ -798,25 +798,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1181200</v>
+        <v>1112200</v>
       </c>
       <c r="E10" s="3">
-        <v>1362600</v>
+        <v>1283000</v>
       </c>
       <c r="F10" s="3">
-        <v>2164300</v>
+        <v>2037800</v>
       </c>
       <c r="G10" s="3">
-        <v>1316700</v>
+        <v>1239800</v>
       </c>
       <c r="H10" s="3">
-        <v>1663200</v>
+        <v>1566000</v>
       </c>
       <c r="I10" s="3">
-        <v>909200</v>
+        <v>856100</v>
       </c>
       <c r="J10" s="3">
-        <v>-4192900</v>
+        <v>-3948000</v>
       </c>
       <c r="K10" s="3">
         <v>901900</v>
@@ -924,7 +924,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>-10100</v>
+        <v>-9500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1000,25 +1000,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5521300</v>
+        <v>5198800</v>
       </c>
       <c r="E17" s="3">
-        <v>5202400</v>
+        <v>4898600</v>
       </c>
       <c r="F17" s="3">
-        <v>5218200</v>
+        <v>4913400</v>
       </c>
       <c r="G17" s="3">
-        <v>4483500</v>
+        <v>4221700</v>
       </c>
       <c r="H17" s="3">
-        <v>4431400</v>
+        <v>4172600</v>
       </c>
       <c r="I17" s="3">
-        <v>3493700</v>
+        <v>3289600</v>
       </c>
       <c r="J17" s="3">
-        <v>8733000</v>
+        <v>8222900</v>
       </c>
       <c r="K17" s="3">
         <v>4140000</v>
@@ -1035,25 +1035,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>976700</v>
+        <v>919700</v>
       </c>
       <c r="E18" s="3">
-        <v>1062100</v>
+        <v>1000100</v>
       </c>
       <c r="F18" s="3">
-        <v>1974600</v>
+        <v>1859300</v>
       </c>
       <c r="G18" s="3">
-        <v>1093700</v>
+        <v>1029800</v>
       </c>
       <c r="H18" s="3">
-        <v>1422200</v>
+        <v>1339100</v>
       </c>
       <c r="I18" s="3">
-        <v>722300</v>
+        <v>680100</v>
       </c>
       <c r="J18" s="3">
-        <v>-4428300</v>
+        <v>-4169700</v>
       </c>
       <c r="K18" s="3">
         <v>673600</v>
@@ -1085,25 +1085,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>451900</v>
+        <v>425500</v>
       </c>
       <c r="E20" s="3">
-        <v>467200</v>
+        <v>439900</v>
       </c>
       <c r="F20" s="3">
-        <v>-949000</v>
+        <v>-893500</v>
       </c>
       <c r="G20" s="3">
-        <v>194800</v>
+        <v>183400</v>
       </c>
       <c r="H20" s="3">
-        <v>204300</v>
+        <v>192400</v>
       </c>
       <c r="I20" s="3">
-        <v>342200</v>
+        <v>322200</v>
       </c>
       <c r="J20" s="3">
-        <v>227800</v>
+        <v>214500</v>
       </c>
       <c r="K20" s="3">
         <v>318700</v>
@@ -1120,25 +1120,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1477300</v>
+        <v>1391000</v>
       </c>
       <c r="E21" s="3">
-        <v>2830500</v>
+        <v>2665200</v>
       </c>
       <c r="F21" s="3">
-        <v>1646600</v>
+        <v>1550400</v>
       </c>
       <c r="G21" s="3">
-        <v>1718900</v>
+        <v>1618500</v>
       </c>
       <c r="H21" s="3">
-        <v>2062800</v>
+        <v>1942300</v>
       </c>
       <c r="I21" s="3">
-        <v>1491400</v>
+        <v>1404300</v>
       </c>
       <c r="J21" s="3">
-        <v>-3583300</v>
+        <v>-3374000</v>
       </c>
       <c r="K21" s="3">
         <v>1561800</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>453000</v>
+        <v>426600</v>
       </c>
       <c r="E22" s="3">
-        <v>399400</v>
+        <v>376000</v>
       </c>
       <c r="F22" s="3">
-        <v>334200</v>
+        <v>314700</v>
       </c>
       <c r="G22" s="3">
-        <v>383500</v>
+        <v>361100</v>
       </c>
       <c r="H22" s="3">
-        <v>384600</v>
+        <v>362100</v>
       </c>
       <c r="I22" s="3">
-        <v>389000</v>
+        <v>366300</v>
       </c>
       <c r="J22" s="3">
-        <v>349600</v>
+        <v>329200</v>
       </c>
       <c r="K22" s="3">
         <v>418600</v>
@@ -1190,25 +1190,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>975600</v>
+        <v>918600</v>
       </c>
       <c r="E23" s="3">
-        <v>1129900</v>
+        <v>1063900</v>
       </c>
       <c r="F23" s="3">
-        <v>691500</v>
+        <v>651100</v>
       </c>
       <c r="G23" s="3">
-        <v>905000</v>
+        <v>852200</v>
       </c>
       <c r="H23" s="3">
-        <v>1241900</v>
+        <v>1169400</v>
       </c>
       <c r="I23" s="3">
-        <v>675500</v>
+        <v>636100</v>
       </c>
       <c r="J23" s="3">
-        <v>-4550100</v>
+        <v>-4284400</v>
       </c>
       <c r="K23" s="3">
         <v>573700</v>
@@ -1225,25 +1225,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>130100</v>
+        <v>122500</v>
       </c>
       <c r="E24" s="3">
-        <v>452600</v>
+        <v>426100</v>
       </c>
       <c r="F24" s="3">
-        <v>678700</v>
+        <v>639000</v>
       </c>
       <c r="G24" s="3">
-        <v>254000</v>
+        <v>239100</v>
       </c>
       <c r="H24" s="3">
-        <v>352200</v>
+        <v>331700</v>
       </c>
       <c r="I24" s="3">
-        <v>181700</v>
+        <v>171100</v>
       </c>
       <c r="J24" s="3">
-        <v>-1691700</v>
+        <v>-1592900</v>
       </c>
       <c r="K24" s="3">
         <v>252000</v>
@@ -1295,25 +1295,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>845400</v>
+        <v>796100</v>
       </c>
       <c r="E26" s="3">
-        <v>54200</v>
+        <v>51000</v>
       </c>
       <c r="F26" s="3">
-        <v>12800</v>
+        <v>12100</v>
       </c>
       <c r="G26" s="3">
-        <v>651000</v>
+        <v>613000</v>
       </c>
       <c r="H26" s="3">
-        <v>889700</v>
+        <v>837800</v>
       </c>
       <c r="I26" s="3">
-        <v>493900</v>
+        <v>465000</v>
       </c>
       <c r="J26" s="3">
-        <v>-2858500</v>
+        <v>-2691500</v>
       </c>
       <c r="K26" s="3">
         <v>321700</v>
@@ -1330,25 +1330,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>644700</v>
+        <v>607000</v>
       </c>
       <c r="E27" s="3">
-        <v>-116400</v>
+        <v>-109600</v>
       </c>
       <c r="F27" s="3">
-        <v>-224600</v>
+        <v>-211500</v>
       </c>
       <c r="G27" s="3">
-        <v>422300</v>
+        <v>397600</v>
       </c>
       <c r="H27" s="3">
-        <v>510200</v>
+        <v>480400</v>
       </c>
       <c r="I27" s="3">
-        <v>262400</v>
+        <v>247100</v>
       </c>
       <c r="J27" s="3">
-        <v>-1899700</v>
+        <v>-1788700</v>
       </c>
       <c r="K27" s="3">
         <v>146800</v>
@@ -1505,25 +1505,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-451900</v>
+        <v>-425500</v>
       </c>
       <c r="E32" s="3">
-        <v>-467200</v>
+        <v>-439900</v>
       </c>
       <c r="F32" s="3">
-        <v>949000</v>
+        <v>893500</v>
       </c>
       <c r="G32" s="3">
-        <v>-194800</v>
+        <v>-183400</v>
       </c>
       <c r="H32" s="3">
-        <v>-204300</v>
+        <v>-192400</v>
       </c>
       <c r="I32" s="3">
-        <v>-342200</v>
+        <v>-322200</v>
       </c>
       <c r="J32" s="3">
-        <v>-227800</v>
+        <v>-214500</v>
       </c>
       <c r="K32" s="3">
         <v>-318700</v>
@@ -1540,25 +1540,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>644700</v>
+        <v>607000</v>
       </c>
       <c r="E33" s="3">
-        <v>-116400</v>
+        <v>-109600</v>
       </c>
       <c r="F33" s="3">
-        <v>-224600</v>
+        <v>-211500</v>
       </c>
       <c r="G33" s="3">
-        <v>422300</v>
+        <v>397600</v>
       </c>
       <c r="H33" s="3">
-        <v>510200</v>
+        <v>480400</v>
       </c>
       <c r="I33" s="3">
-        <v>262400</v>
+        <v>247100</v>
       </c>
       <c r="J33" s="3">
-        <v>-1899700</v>
+        <v>-1788700</v>
       </c>
       <c r="K33" s="3">
         <v>146800</v>
@@ -1610,25 +1610,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>644700</v>
+        <v>607000</v>
       </c>
       <c r="E35" s="3">
-        <v>-116400</v>
+        <v>-109600</v>
       </c>
       <c r="F35" s="3">
-        <v>-224600</v>
+        <v>-211500</v>
       </c>
       <c r="G35" s="3">
-        <v>422300</v>
+        <v>397600</v>
       </c>
       <c r="H35" s="3">
-        <v>510200</v>
+        <v>480400</v>
       </c>
       <c r="I35" s="3">
-        <v>262400</v>
+        <v>247100</v>
       </c>
       <c r="J35" s="3">
-        <v>-1899700</v>
+        <v>-1788700</v>
       </c>
       <c r="K35" s="3">
         <v>146800</v>
@@ -1715,25 +1715,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1015000</v>
+        <v>955700</v>
       </c>
       <c r="E41" s="3">
-        <v>438000</v>
+        <v>412400</v>
       </c>
       <c r="F41" s="3">
-        <v>592400</v>
+        <v>557800</v>
       </c>
       <c r="G41" s="3">
-        <v>228200</v>
+        <v>214900</v>
       </c>
       <c r="H41" s="3">
-        <v>1364700</v>
+        <v>1285000</v>
       </c>
       <c r="I41" s="3">
-        <v>278200</v>
+        <v>261900</v>
       </c>
       <c r="J41" s="3">
-        <v>293000</v>
+        <v>275900</v>
       </c>
       <c r="K41" s="3">
         <v>246700</v>
@@ -1750,25 +1750,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4101300</v>
+        <v>3861700</v>
       </c>
       <c r="E42" s="3">
-        <v>5147100</v>
+        <v>4846500</v>
       </c>
       <c r="F42" s="3">
-        <v>4436600</v>
+        <v>4177500</v>
       </c>
       <c r="G42" s="3">
-        <v>5386300</v>
+        <v>5071700</v>
       </c>
       <c r="H42" s="3">
-        <v>7366600</v>
+        <v>6936300</v>
       </c>
       <c r="I42" s="3">
-        <v>7340900</v>
+        <v>6912100</v>
       </c>
       <c r="J42" s="3">
-        <v>7949300</v>
+        <v>7485100</v>
       </c>
       <c r="K42" s="3">
         <v>8093700</v>
@@ -1785,25 +1785,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1404500</v>
+        <v>1322400</v>
       </c>
       <c r="E43" s="3">
-        <v>1384400</v>
+        <v>1303500</v>
       </c>
       <c r="F43" s="3">
-        <v>1183100</v>
+        <v>1114000</v>
       </c>
       <c r="G43" s="3">
-        <v>1023900</v>
+        <v>964100</v>
       </c>
       <c r="H43" s="3">
-        <v>846300</v>
+        <v>796800</v>
       </c>
       <c r="I43" s="3">
-        <v>1307100</v>
+        <v>1230700</v>
       </c>
       <c r="J43" s="3">
-        <v>1113300</v>
+        <v>1048300</v>
       </c>
       <c r="K43" s="3">
         <v>1432800</v>
@@ -1820,25 +1820,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1863200</v>
+        <v>1754400</v>
       </c>
       <c r="E44" s="3">
-        <v>1877500</v>
+        <v>1767800</v>
       </c>
       <c r="F44" s="3">
-        <v>1683200</v>
+        <v>1584900</v>
       </c>
       <c r="G44" s="3">
-        <v>1648200</v>
+        <v>1551900</v>
       </c>
       <c r="H44" s="3">
-        <v>1365600</v>
+        <v>1285900</v>
       </c>
       <c r="I44" s="3">
-        <v>1292000</v>
+        <v>1216500</v>
       </c>
       <c r="J44" s="3">
-        <v>1140900</v>
+        <v>1074300</v>
       </c>
       <c r="K44" s="3">
         <v>1299600</v>
@@ -1855,25 +1855,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26700</v>
+        <v>25100</v>
       </c>
       <c r="E45" s="3">
-        <v>71100</v>
+        <v>67000</v>
       </c>
       <c r="F45" s="3">
-        <v>58300</v>
+        <v>54900</v>
       </c>
       <c r="G45" s="3">
-        <v>39000</v>
+        <v>36700</v>
       </c>
       <c r="H45" s="3">
-        <v>168100</v>
+        <v>158300</v>
       </c>
       <c r="I45" s="3">
-        <v>59700</v>
+        <v>56200</v>
       </c>
       <c r="J45" s="3">
-        <v>103400</v>
+        <v>97300</v>
       </c>
       <c r="K45" s="3">
         <v>104200</v>
@@ -1890,25 +1890,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8410600</v>
+        <v>7919400</v>
       </c>
       <c r="E46" s="3">
-        <v>8918100</v>
+        <v>8397300</v>
       </c>
       <c r="F46" s="3">
-        <v>7953500</v>
+        <v>7489000</v>
       </c>
       <c r="G46" s="3">
-        <v>8325600</v>
+        <v>7839300</v>
       </c>
       <c r="H46" s="3">
-        <v>11111300</v>
+        <v>10462300</v>
       </c>
       <c r="I46" s="3">
-        <v>10277800</v>
+        <v>9677500</v>
       </c>
       <c r="J46" s="3">
-        <v>10599900</v>
+        <v>9980800</v>
       </c>
       <c r="K46" s="3">
         <v>11176900</v>
@@ -1925,25 +1925,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1175300</v>
+        <v>1106600</v>
       </c>
       <c r="E47" s="3">
-        <v>506300</v>
+        <v>476700</v>
       </c>
       <c r="F47" s="3">
-        <v>498300</v>
+        <v>469200</v>
       </c>
       <c r="G47" s="3">
-        <v>425600</v>
+        <v>400700</v>
       </c>
       <c r="H47" s="3">
-        <v>405300</v>
+        <v>381700</v>
       </c>
       <c r="I47" s="3">
-        <v>363900</v>
+        <v>342600</v>
       </c>
       <c r="J47" s="3">
-        <v>343000</v>
+        <v>322900</v>
       </c>
       <c r="K47" s="3">
         <v>373300</v>
@@ -1960,25 +1960,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15708000</v>
+        <v>14790600</v>
       </c>
       <c r="E48" s="3">
-        <v>15766200</v>
+        <v>14845400</v>
       </c>
       <c r="F48" s="3">
-        <v>14712500</v>
+        <v>13853300</v>
       </c>
       <c r="G48" s="3">
-        <v>13606900</v>
+        <v>12812200</v>
       </c>
       <c r="H48" s="3">
-        <v>13702700</v>
+        <v>12902400</v>
       </c>
       <c r="I48" s="3">
-        <v>13927200</v>
+        <v>13113800</v>
       </c>
       <c r="J48" s="3">
-        <v>13765900</v>
+        <v>12961900</v>
       </c>
       <c r="K48" s="3">
         <v>19534500</v>
@@ -1995,25 +1995,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>108300</v>
+        <v>102000</v>
       </c>
       <c r="E49" s="3">
-        <v>113900</v>
+        <v>107200</v>
       </c>
       <c r="F49" s="3">
-        <v>116600</v>
+        <v>109800</v>
       </c>
       <c r="G49" s="3">
-        <v>84600</v>
+        <v>79700</v>
       </c>
       <c r="H49" s="3">
-        <v>89500</v>
+        <v>84300</v>
       </c>
       <c r="I49" s="3">
-        <v>86900</v>
+        <v>81800</v>
       </c>
       <c r="J49" s="3">
-        <v>88500</v>
+        <v>83300</v>
       </c>
       <c r="K49" s="3">
         <v>92000</v>
@@ -2100,25 +2100,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1707900</v>
+        <v>1608100</v>
       </c>
       <c r="E52" s="3">
-        <v>1506500</v>
+        <v>1418600</v>
       </c>
       <c r="F52" s="3">
-        <v>1491700</v>
+        <v>1404600</v>
       </c>
       <c r="G52" s="3">
-        <v>1577000</v>
+        <v>1484900</v>
       </c>
       <c r="H52" s="3">
-        <v>1631900</v>
+        <v>1536600</v>
       </c>
       <c r="I52" s="3">
-        <v>1472800</v>
+        <v>1386700</v>
       </c>
       <c r="J52" s="3">
-        <v>1447100</v>
+        <v>1362600</v>
       </c>
       <c r="K52" s="3">
         <v>1284400</v>
@@ -2170,25 +2170,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27110000</v>
+        <v>25526600</v>
       </c>
       <c r="E54" s="3">
-        <v>26811000</v>
+        <v>25245100</v>
       </c>
       <c r="F54" s="3">
-        <v>24772600</v>
+        <v>23325800</v>
       </c>
       <c r="G54" s="3">
-        <v>24019600</v>
+        <v>22616800</v>
       </c>
       <c r="H54" s="3">
-        <v>26940800</v>
+        <v>25367300</v>
       </c>
       <c r="I54" s="3">
-        <v>26128500</v>
+        <v>24602500</v>
       </c>
       <c r="J54" s="3">
-        <v>26244300</v>
+        <v>24711600</v>
       </c>
       <c r="K54" s="3">
         <v>32461200</v>
@@ -2235,25 +2235,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5002100</v>
+        <v>4710000</v>
       </c>
       <c r="E57" s="3">
-        <v>4091600</v>
+        <v>3852600</v>
       </c>
       <c r="F57" s="3">
-        <v>3595100</v>
+        <v>3385100</v>
       </c>
       <c r="G57" s="3">
-        <v>2858200</v>
+        <v>2691200</v>
       </c>
       <c r="H57" s="3">
-        <v>4012500</v>
+        <v>3778200</v>
       </c>
       <c r="I57" s="3">
-        <v>2998700</v>
+        <v>2823500</v>
       </c>
       <c r="J57" s="3">
-        <v>3548000</v>
+        <v>3340800</v>
       </c>
       <c r="K57" s="3">
         <v>3035700</v>
@@ -2270,25 +2270,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4423300</v>
+        <v>4165000</v>
       </c>
       <c r="E58" s="3">
-        <v>3742200</v>
+        <v>3523700</v>
       </c>
       <c r="F58" s="3">
-        <v>4404300</v>
+        <v>4147100</v>
       </c>
       <c r="G58" s="3">
-        <v>3577700</v>
+        <v>3368800</v>
       </c>
       <c r="H58" s="3">
-        <v>5800300</v>
+        <v>5461500</v>
       </c>
       <c r="I58" s="3">
-        <v>3574600</v>
+        <v>3365800</v>
       </c>
       <c r="J58" s="3">
-        <v>2559900</v>
+        <v>2410400</v>
       </c>
       <c r="K58" s="3">
         <v>2517800</v>
@@ -2305,25 +2305,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1314600</v>
+        <v>1237800</v>
       </c>
       <c r="E59" s="3">
-        <v>1093400</v>
+        <v>1029500</v>
       </c>
       <c r="F59" s="3">
-        <v>1423100</v>
+        <v>1340000</v>
       </c>
       <c r="G59" s="3">
-        <v>2025800</v>
+        <v>1907500</v>
       </c>
       <c r="H59" s="3">
-        <v>1757600</v>
+        <v>1654900</v>
       </c>
       <c r="I59" s="3">
-        <v>1557000</v>
+        <v>1466000</v>
       </c>
       <c r="J59" s="3">
-        <v>1498200</v>
+        <v>1410700</v>
       </c>
       <c r="K59" s="3">
         <v>1739200</v>
@@ -2340,25 +2340,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10740100</v>
+        <v>10112800</v>
       </c>
       <c r="E60" s="3">
-        <v>8927100</v>
+        <v>8405700</v>
       </c>
       <c r="F60" s="3">
-        <v>9422500</v>
+        <v>8872200</v>
       </c>
       <c r="G60" s="3">
-        <v>8461700</v>
+        <v>7967500</v>
       </c>
       <c r="H60" s="3">
-        <v>11570400</v>
+        <v>10894600</v>
       </c>
       <c r="I60" s="3">
-        <v>8130200</v>
+        <v>7655400</v>
       </c>
       <c r="J60" s="3">
-        <v>7606100</v>
+        <v>7161900</v>
       </c>
       <c r="K60" s="3">
         <v>7292600</v>
@@ -2375,25 +2375,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4874800</v>
+        <v>4590100</v>
       </c>
       <c r="E61" s="3">
-        <v>5576400</v>
+        <v>5250700</v>
       </c>
       <c r="F61" s="3">
-        <v>3761100</v>
+        <v>3541500</v>
       </c>
       <c r="G61" s="3">
-        <v>4256300</v>
+        <v>4007700</v>
       </c>
       <c r="H61" s="3">
-        <v>4670500</v>
+        <v>4397700</v>
       </c>
       <c r="I61" s="3">
-        <v>5786200</v>
+        <v>5448300</v>
       </c>
       <c r="J61" s="3">
-        <v>6932700</v>
+        <v>6527800</v>
       </c>
       <c r="K61" s="3">
         <v>7255600</v>
@@ -2410,25 +2410,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1218600</v>
+        <v>1147400</v>
       </c>
       <c r="E62" s="3">
-        <v>1199900</v>
+        <v>1129800</v>
       </c>
       <c r="F62" s="3">
-        <v>1017800</v>
+        <v>958400</v>
       </c>
       <c r="G62" s="3">
-        <v>653300</v>
+        <v>615100</v>
       </c>
       <c r="H62" s="3">
-        <v>678400</v>
+        <v>638800</v>
       </c>
       <c r="I62" s="3">
-        <v>842000</v>
+        <v>792800</v>
       </c>
       <c r="J62" s="3">
-        <v>806900</v>
+        <v>759700</v>
       </c>
       <c r="K62" s="3">
         <v>2842400</v>
@@ -2550,25 +2550,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18948000</v>
+        <v>17841300</v>
       </c>
       <c r="E66" s="3">
-        <v>18113600</v>
+        <v>17055700</v>
       </c>
       <c r="F66" s="3">
-        <v>16410800</v>
+        <v>15452400</v>
       </c>
       <c r="G66" s="3">
-        <v>15523500</v>
+        <v>14616800</v>
       </c>
       <c r="H66" s="3">
-        <v>18846200</v>
+        <v>17745500</v>
       </c>
       <c r="I66" s="3">
-        <v>20091900</v>
+        <v>18918400</v>
       </c>
       <c r="J66" s="3">
-        <v>20471700</v>
+        <v>19276000</v>
       </c>
       <c r="K66" s="3">
         <v>24361000</v>
@@ -2740,25 +2740,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3950100</v>
+        <v>3719400</v>
       </c>
       <c r="E72" s="3">
-        <v>4304100</v>
+        <v>4052800</v>
       </c>
       <c r="F72" s="3">
-        <v>4244000</v>
+        <v>3996200</v>
       </c>
       <c r="G72" s="3">
-        <v>5608500</v>
+        <v>5281000</v>
       </c>
       <c r="H72" s="3">
-        <v>5186200</v>
+        <v>4883300</v>
       </c>
       <c r="I72" s="3">
-        <v>2997300</v>
+        <v>2822300</v>
       </c>
       <c r="J72" s="3">
-        <v>2737500</v>
+        <v>2577700</v>
       </c>
       <c r="K72" s="3">
         <v>4924800</v>
@@ -2880,25 +2880,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8162000</v>
+        <v>7685300</v>
       </c>
       <c r="E76" s="3">
-        <v>8697400</v>
+        <v>8189400</v>
       </c>
       <c r="F76" s="3">
-        <v>8361700</v>
+        <v>7873400</v>
       </c>
       <c r="G76" s="3">
-        <v>8496200</v>
+        <v>8000000</v>
       </c>
       <c r="H76" s="3">
-        <v>8094600</v>
+        <v>7621800</v>
       </c>
       <c r="I76" s="3">
-        <v>6036600</v>
+        <v>5684100</v>
       </c>
       <c r="J76" s="3">
-        <v>5772700</v>
+        <v>5435500</v>
       </c>
       <c r="K76" s="3">
         <v>8100200</v>
@@ -2990,25 +2990,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>644700</v>
+        <v>607000</v>
       </c>
       <c r="E81" s="3">
-        <v>-116400</v>
+        <v>-109600</v>
       </c>
       <c r="F81" s="3">
-        <v>-224600</v>
+        <v>-211500</v>
       </c>
       <c r="G81" s="3">
-        <v>422300</v>
+        <v>397600</v>
       </c>
       <c r="H81" s="3">
-        <v>510200</v>
+        <v>480400</v>
       </c>
       <c r="I81" s="3">
-        <v>262400</v>
+        <v>247100</v>
       </c>
       <c r="J81" s="3">
-        <v>-1899700</v>
+        <v>-1788700</v>
       </c>
       <c r="K81" s="3">
         <v>146800</v>
@@ -3040,25 +3040,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>699300</v>
+        <v>658400</v>
       </c>
       <c r="E83" s="3">
-        <v>650600</v>
+        <v>612600</v>
       </c>
       <c r="F83" s="3">
-        <v>620900</v>
+        <v>584700</v>
       </c>
       <c r="G83" s="3">
-        <v>430400</v>
+        <v>405200</v>
       </c>
       <c r="H83" s="3">
-        <v>436300</v>
+        <v>410800</v>
       </c>
       <c r="I83" s="3">
-        <v>426900</v>
+        <v>402000</v>
       </c>
       <c r="J83" s="3">
-        <v>617200</v>
+        <v>581200</v>
       </c>
       <c r="K83" s="3">
         <v>569500</v>
@@ -3250,25 +3250,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1945600</v>
+        <v>1832000</v>
       </c>
       <c r="E89" s="3">
-        <v>980600</v>
+        <v>923300</v>
       </c>
       <c r="F89" s="3">
-        <v>2737200</v>
+        <v>2577400</v>
       </c>
       <c r="G89" s="3">
-        <v>2154400</v>
+        <v>2028600</v>
       </c>
       <c r="H89" s="3">
-        <v>1761600</v>
+        <v>1658800</v>
       </c>
       <c r="I89" s="3">
-        <v>1216300</v>
+        <v>1145300</v>
       </c>
       <c r="J89" s="3">
-        <v>224300</v>
+        <v>211200</v>
       </c>
       <c r="K89" s="3">
         <v>1321300</v>
@@ -3300,25 +3300,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1233300</v>
+        <v>-1161300</v>
       </c>
       <c r="E91" s="3">
-        <v>-26800</v>
+        <v>-25300</v>
       </c>
       <c r="F91" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="G91" s="3">
-        <v>-6900</v>
+        <v>-6500</v>
       </c>
       <c r="H91" s="3">
-        <v>-17300</v>
+        <v>-16300</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>-29300</v>
+        <v>-27600</v>
       </c>
       <c r="K91" s="3">
         <v>-54100</v>
@@ -3405,25 +3405,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1872100</v>
+        <v>-1762700</v>
       </c>
       <c r="E94" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="F94" s="3">
-        <v>-723000</v>
+        <v>-680800</v>
       </c>
       <c r="G94" s="3">
-        <v>-9200</v>
+        <v>-8700</v>
       </c>
       <c r="H94" s="3">
-        <v>-878500</v>
+        <v>-827200</v>
       </c>
       <c r="I94" s="3">
-        <v>-243400</v>
+        <v>-229200</v>
       </c>
       <c r="J94" s="3">
-        <v>183000</v>
+        <v>172300</v>
       </c>
       <c r="K94" s="3">
         <v>-804600</v>
@@ -3455,25 +3455,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1089800</v>
+        <v>-1026100</v>
       </c>
       <c r="E96" s="3">
-        <v>109800</v>
+        <v>103400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1103800</v>
+        <v>-1039300</v>
       </c>
       <c r="G96" s="3">
-        <v>-922800</v>
+        <v>-868900</v>
       </c>
       <c r="H96" s="3">
-        <v>-72900</v>
+        <v>-68600</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-145900</v>
+        <v>-137400</v>
       </c>
       <c r="K96" s="3">
         <v>-100800</v>
@@ -3595,25 +3595,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-958800</v>
+        <v>-902800</v>
       </c>
       <c r="E100" s="3">
-        <v>317900</v>
+        <v>299400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1644200</v>
+        <v>-1548200</v>
       </c>
       <c r="G100" s="3">
-        <v>-3370100</v>
+        <v>-3173200</v>
       </c>
       <c r="H100" s="3">
-        <v>84600</v>
+        <v>79700</v>
       </c>
       <c r="I100" s="3">
-        <v>-774300</v>
+        <v>-729100</v>
       </c>
       <c r="J100" s="3">
-        <v>-356600</v>
+        <v>-335800</v>
       </c>
       <c r="K100" s="3">
         <v>-395000</v>
@@ -3630,25 +3630,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17100</v>
+        <v>-16100</v>
       </c>
       <c r="E101" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="F101" s="3">
-        <v>13900</v>
+        <v>13100</v>
       </c>
       <c r="G101" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="H101" s="3">
-        <v>-10900</v>
+        <v>-10200</v>
       </c>
       <c r="I101" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="J101" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="K101" s="3">
         <v>300</v>
@@ -3665,25 +3665,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>577000</v>
+        <v>543300</v>
       </c>
       <c r="E102" s="3">
-        <v>-174100</v>
+        <v>-164000</v>
       </c>
       <c r="F102" s="3">
-        <v>383900</v>
+        <v>361500</v>
       </c>
       <c r="G102" s="3">
-        <v>-1226900</v>
+        <v>-1155300</v>
       </c>
       <c r="H102" s="3">
-        <v>1177000</v>
+        <v>1108200</v>
       </c>
       <c r="I102" s="3">
-        <v>-14900</v>
+        <v>-14000</v>
       </c>
       <c r="J102" s="3">
-        <v>53500</v>
+        <v>50400</v>
       </c>
       <c r="K102" s="3">
         <v>122000</v>

--- a/AAII_Financials/Quarterly/VEDL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VEDL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>VEDL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,209 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>42643</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42277</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42094</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6118500</v>
+        <v>5021100</v>
       </c>
       <c r="E8" s="3">
-        <v>5898600</v>
+        <v>5591900</v>
       </c>
       <c r="F8" s="3">
-        <v>6772700</v>
+        <v>5903900</v>
       </c>
       <c r="G8" s="3">
-        <v>5251500</v>
+        <v>6368400</v>
       </c>
       <c r="H8" s="3">
+        <v>12245600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7049400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5466000</v>
+      </c>
+      <c r="K8" s="3">
         <v>5511700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>3969800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>4053300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>4813600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>5081900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>5026800</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5006300</v>
+        <v>3860800</v>
       </c>
       <c r="E9" s="3">
-        <v>4615700</v>
+        <v>6382400</v>
       </c>
       <c r="F9" s="3">
-        <v>4734900</v>
+        <v>5030900</v>
       </c>
       <c r="G9" s="3">
-        <v>4011700</v>
+        <v>5210800</v>
       </c>
       <c r="H9" s="3">
+        <v>9627900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4928300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4175600</v>
+      </c>
+      <c r="K9" s="3">
         <v>3945700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>3113700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>8001200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>3911700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>9805500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>3881700</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1112200</v>
+        <v>1160400</v>
       </c>
       <c r="E10" s="3">
-        <v>1283000</v>
+        <v>-790600</v>
       </c>
       <c r="F10" s="3">
-        <v>2037800</v>
+        <v>872900</v>
       </c>
       <c r="G10" s="3">
-        <v>1239800</v>
+        <v>1157700</v>
       </c>
       <c r="H10" s="3">
+        <v>2617700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2121100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1290500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1566000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>856100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>-3948000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>901900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>-4723500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>1145100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,8 +881,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,8 +919,17 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,28 +963,37 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>-9900</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -944,11 +1004,20 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>3919000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,8 +1051,17 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,78 +1072,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5198800</v>
+        <v>4093000</v>
       </c>
       <c r="E17" s="3">
-        <v>4898600</v>
+        <v>6720100</v>
       </c>
       <c r="F17" s="3">
-        <v>4913400</v>
+        <v>5325200</v>
       </c>
       <c r="G17" s="3">
-        <v>4221700</v>
+        <v>5411200</v>
       </c>
       <c r="H17" s="3">
+        <v>5124500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5114100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4394100</v>
+      </c>
+      <c r="K17" s="3">
         <v>4172600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>3289600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>8222900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>4140000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>10065000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>4166900</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>919700</v>
+        <v>928200</v>
       </c>
       <c r="E18" s="3">
-        <v>1000100</v>
+        <v>-1128200</v>
       </c>
       <c r="F18" s="3">
-        <v>1859300</v>
+        <v>578700</v>
       </c>
       <c r="G18" s="3">
-        <v>1029800</v>
+        <v>957200</v>
       </c>
       <c r="H18" s="3">
+        <v>7121100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1935200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1071900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1339100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>680100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-4169700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>673600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-4983100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>859900</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,183 +1178,231 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>425500</v>
+        <v>211600</v>
       </c>
       <c r="E20" s="3">
-        <v>439900</v>
+        <v>172600</v>
       </c>
       <c r="F20" s="3">
-        <v>-893500</v>
+        <v>203500</v>
       </c>
       <c r="G20" s="3">
-        <v>183400</v>
+        <v>442900</v>
       </c>
       <c r="H20" s="3">
+        <v>-5622300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-930000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>190900</v>
+      </c>
+      <c r="K20" s="3">
         <v>192400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>322200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>214500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>318700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>349800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>113600</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1391000</v>
+        <v>1682400</v>
       </c>
       <c r="E21" s="3">
-        <v>2665200</v>
+        <v>-254600</v>
       </c>
       <c r="F21" s="3">
-        <v>1550400</v>
+        <v>1463900</v>
       </c>
       <c r="G21" s="3">
-        <v>1618500</v>
+        <v>2085500</v>
       </c>
       <c r="H21" s="3">
+        <v>2136400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1613800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1684600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1942300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>1404300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-3374000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>1561800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>-3927600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>1798600</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>426600</v>
+        <v>358900</v>
       </c>
       <c r="E22" s="3">
-        <v>376000</v>
+        <v>363700</v>
       </c>
       <c r="F22" s="3">
-        <v>314700</v>
+        <v>409200</v>
       </c>
       <c r="G22" s="3">
-        <v>361100</v>
+        <v>444000</v>
       </c>
       <c r="H22" s="3">
+        <v>391400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>327500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>375900</v>
+      </c>
+      <c r="K22" s="3">
         <v>362100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>366300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>329200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>418600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>403300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>546900</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>918600</v>
+        <v>780800</v>
       </c>
       <c r="E23" s="3">
-        <v>1063900</v>
+        <v>-1319300</v>
       </c>
       <c r="F23" s="3">
-        <v>651100</v>
+        <v>372900</v>
       </c>
       <c r="G23" s="3">
-        <v>852200</v>
+        <v>956100</v>
       </c>
       <c r="H23" s="3">
+        <v>1107400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>677700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>887000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1169400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>636100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-4284400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>573700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-5036600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>426600</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>122500</v>
+        <v>374300</v>
       </c>
       <c r="E24" s="3">
-        <v>426100</v>
+        <v>-234000</v>
       </c>
       <c r="F24" s="3">
-        <v>639000</v>
+        <v>-133100</v>
       </c>
       <c r="G24" s="3">
-        <v>239100</v>
+        <v>127500</v>
       </c>
       <c r="H24" s="3">
+        <v>443500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>665100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>248900</v>
+      </c>
+      <c r="K24" s="3">
         <v>331700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>171100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>-1592900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>252000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>-1627000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>134300</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1436,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>796100</v>
+        <v>406500</v>
       </c>
       <c r="E26" s="3">
-        <v>51000</v>
+        <v>-1085300</v>
       </c>
       <c r="F26" s="3">
-        <v>12100</v>
+        <v>506000</v>
       </c>
       <c r="G26" s="3">
-        <v>613000</v>
+        <v>828600</v>
       </c>
       <c r="H26" s="3">
+        <v>53100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>12600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>638100</v>
+      </c>
+      <c r="K26" s="3">
         <v>837800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>465000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-2691500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>321700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-3409700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>610400</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>607000</v>
+        <v>226300</v>
       </c>
       <c r="E27" s="3">
-        <v>-109600</v>
+        <v>-1189700</v>
       </c>
       <c r="F27" s="3">
-        <v>-211500</v>
+        <v>346900</v>
       </c>
       <c r="G27" s="3">
-        <v>397600</v>
+        <v>631800</v>
       </c>
       <c r="H27" s="3">
+        <v>-114100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-220100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>413900</v>
+      </c>
+      <c r="K27" s="3">
         <v>480400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>247100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-1788700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>146800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-2061000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>292300</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,8 +1568,17 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1429,8 +1612,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1656,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,78 +1700,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-425500</v>
+        <v>-211600</v>
       </c>
       <c r="E32" s="3">
-        <v>-439900</v>
+        <v>-172600</v>
       </c>
       <c r="F32" s="3">
-        <v>893500</v>
+        <v>-203500</v>
       </c>
       <c r="G32" s="3">
-        <v>-183400</v>
+        <v>-442900</v>
       </c>
       <c r="H32" s="3">
+        <v>5622300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>930000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-190900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-192400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-322200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-214500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-318700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-349800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-113600</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>607000</v>
+        <v>226300</v>
       </c>
       <c r="E33" s="3">
-        <v>-109600</v>
+        <v>-1189700</v>
       </c>
       <c r="F33" s="3">
-        <v>-211500</v>
+        <v>346900</v>
       </c>
       <c r="G33" s="3">
-        <v>397600</v>
+        <v>631800</v>
       </c>
       <c r="H33" s="3">
+        <v>-114100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-220100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>413900</v>
+      </c>
+      <c r="K33" s="3">
         <v>480400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>247100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-1788700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>146800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-2061000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>292300</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1832,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>607000</v>
+        <v>226300</v>
       </c>
       <c r="E35" s="3">
-        <v>-109600</v>
+        <v>-1189700</v>
       </c>
       <c r="F35" s="3">
-        <v>-211500</v>
+        <v>346900</v>
       </c>
       <c r="G35" s="3">
-        <v>397600</v>
+        <v>631800</v>
       </c>
       <c r="H35" s="3">
+        <v>-114100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-220100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>413900</v>
+      </c>
+      <c r="K35" s="3">
         <v>480400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>247100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-1788700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>146800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-2061000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>292300</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>42643</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42277</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42094</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1949,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,323 +1967,407 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>955700</v>
+        <v>256000</v>
       </c>
       <c r="E41" s="3">
-        <v>412400</v>
+        <v>329200</v>
       </c>
       <c r="F41" s="3">
-        <v>557800</v>
+        <v>509300</v>
       </c>
       <c r="G41" s="3">
-        <v>214900</v>
+        <v>994700</v>
       </c>
       <c r="H41" s="3">
+        <v>429200</v>
+      </c>
+      <c r="I41" s="3">
+        <v>580600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>223700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1285000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>261900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>275900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>246700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>80600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>1568200</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3861700</v>
+        <v>4619400</v>
       </c>
       <c r="E42" s="3">
-        <v>4846500</v>
+        <v>4869500</v>
       </c>
       <c r="F42" s="3">
-        <v>4177500</v>
+        <v>4385100</v>
       </c>
       <c r="G42" s="3">
-        <v>5071700</v>
+        <v>4019500</v>
       </c>
       <c r="H42" s="3">
+        <v>5044500</v>
+      </c>
+      <c r="I42" s="3">
+        <v>4348100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>5278900</v>
+      </c>
+      <c r="K42" s="3">
         <v>6936300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>6912100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>7485100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>8093700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>6879700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>6580900</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1322400</v>
+        <v>1709500</v>
       </c>
       <c r="E43" s="3">
-        <v>1303500</v>
+        <v>1145900</v>
       </c>
       <c r="F43" s="3">
-        <v>1114000</v>
+        <v>906900</v>
       </c>
       <c r="G43" s="3">
-        <v>964100</v>
+        <v>1376500</v>
       </c>
       <c r="H43" s="3">
+        <v>1356800</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1159500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1003500</v>
+      </c>
+      <c r="K43" s="3">
         <v>796800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>1230700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>1048300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>1432800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>1430000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>1669000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1754400</v>
+        <v>1404400</v>
       </c>
       <c r="E44" s="3">
-        <v>1767800</v>
+        <v>1559900</v>
       </c>
       <c r="F44" s="3">
-        <v>1584900</v>
+        <v>1473700</v>
       </c>
       <c r="G44" s="3">
-        <v>1551900</v>
+        <v>1826000</v>
       </c>
       <c r="H44" s="3">
+        <v>1840000</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1649600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1615300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1285900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>1216500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>1074300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>1299600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>1208700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>1855800</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25100</v>
+        <v>16800</v>
       </c>
       <c r="E45" s="3">
-        <v>67000</v>
+        <v>109500</v>
       </c>
       <c r="F45" s="3">
-        <v>54900</v>
+        <v>41300</v>
       </c>
       <c r="G45" s="3">
-        <v>36700</v>
+        <v>26200</v>
       </c>
       <c r="H45" s="3">
+        <v>69700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>57100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>38200</v>
+      </c>
+      <c r="K45" s="3">
         <v>158300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>56200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>97300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>104200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>73800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>148900</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7919400</v>
+        <v>8006100</v>
       </c>
       <c r="E46" s="3">
-        <v>8397300</v>
+        <v>8013900</v>
       </c>
       <c r="F46" s="3">
-        <v>7489000</v>
+        <v>7316300</v>
       </c>
       <c r="G46" s="3">
-        <v>7839300</v>
+        <v>8242800</v>
       </c>
       <c r="H46" s="3">
+        <v>8740300</v>
+      </c>
+      <c r="I46" s="3">
+        <v>7794900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>8159500</v>
+      </c>
+      <c r="K46" s="3">
         <v>10462300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>9677500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>9980800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>11176900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>9672900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>9967100</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1106600</v>
+        <v>423500</v>
       </c>
       <c r="E47" s="3">
-        <v>476700</v>
+        <v>376600</v>
       </c>
       <c r="F47" s="3">
-        <v>469200</v>
+        <v>366600</v>
       </c>
       <c r="G47" s="3">
-        <v>400700</v>
+        <v>1151800</v>
       </c>
       <c r="H47" s="3">
+        <v>496200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>488300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>417100</v>
+      </c>
+      <c r="K47" s="3">
         <v>381700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>342600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>322900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>373300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>369600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>1327100</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14790600</v>
+        <v>13379000</v>
       </c>
       <c r="E48" s="3">
-        <v>14845400</v>
+        <v>13550800</v>
       </c>
       <c r="F48" s="3">
-        <v>13853300</v>
+        <v>15442100</v>
       </c>
       <c r="G48" s="3">
-        <v>12812200</v>
+        <v>15394700</v>
       </c>
       <c r="H48" s="3">
+        <v>15451800</v>
+      </c>
+      <c r="I48" s="3">
+        <v>14419100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>13335500</v>
+      </c>
+      <c r="K48" s="3">
         <v>12902400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>13113800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>12961900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>19534500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>18389500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>48197300</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>102000</v>
+        <v>106800</v>
       </c>
       <c r="E49" s="3">
         <v>107200</v>
       </c>
       <c r="F49" s="3">
-        <v>109800</v>
+        <v>109600</v>
       </c>
       <c r="G49" s="3">
-        <v>79700</v>
+        <v>106100</v>
       </c>
       <c r="H49" s="3">
+        <v>111600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>114200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>82900</v>
+      </c>
+      <c r="K49" s="3">
         <v>84300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>81800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>83300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>92000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>90900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>102700</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2401,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,43 +2445,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1608100</v>
+        <v>2048300</v>
       </c>
       <c r="E52" s="3">
-        <v>1418600</v>
+        <v>2106000</v>
       </c>
       <c r="F52" s="3">
-        <v>1404600</v>
+        <v>1825600</v>
       </c>
       <c r="G52" s="3">
-        <v>1484900</v>
+        <v>1673800</v>
       </c>
       <c r="H52" s="3">
+        <v>1476500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1462000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1545600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1536600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>1386700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>1362600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>1284400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>1265400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>37261400</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2533,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25526600</v>
+        <v>23963700</v>
       </c>
       <c r="E54" s="3">
-        <v>25245100</v>
+        <v>24154400</v>
       </c>
       <c r="F54" s="3">
-        <v>23325800</v>
+        <v>25060200</v>
       </c>
       <c r="G54" s="3">
-        <v>22616800</v>
+        <v>26569300</v>
       </c>
       <c r="H54" s="3">
+        <v>26276300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>24278500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>23540600</v>
+      </c>
+      <c r="K54" s="3">
         <v>25367300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>24602500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>24711600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>32461200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>29788300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>36732600</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2601,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,218 +2619,275 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4710000</v>
+        <v>3642400</v>
       </c>
       <c r="E57" s="3">
-        <v>3852600</v>
+        <v>4274700</v>
       </c>
       <c r="F57" s="3">
-        <v>3385100</v>
+        <v>4105200</v>
       </c>
       <c r="G57" s="3">
-        <v>2691200</v>
+        <v>4902300</v>
       </c>
       <c r="H57" s="3">
+        <v>4010000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>3523400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2801200</v>
+      </c>
+      <c r="K57" s="3">
         <v>3778200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>2823500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>3340800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>3035700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>2287400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>2595400</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4165000</v>
+        <v>3162200</v>
       </c>
       <c r="E58" s="3">
-        <v>3523700</v>
+        <v>2920300</v>
       </c>
       <c r="F58" s="3">
-        <v>4147100</v>
+        <v>3610400</v>
       </c>
       <c r="G58" s="3">
-        <v>3368800</v>
+        <v>4335100</v>
       </c>
       <c r="H58" s="3">
+        <v>3667600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>4316500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3506400</v>
+      </c>
+      <c r="K58" s="3">
         <v>5461500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>3365800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>2410400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>2517800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>2221800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>2994800</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1237800</v>
+        <v>1382100</v>
       </c>
       <c r="E59" s="3">
-        <v>1029500</v>
+        <v>1489400</v>
       </c>
       <c r="F59" s="3">
-        <v>1340000</v>
+        <v>1492300</v>
       </c>
       <c r="G59" s="3">
-        <v>1907500</v>
+        <v>1288400</v>
       </c>
       <c r="H59" s="3">
+        <v>1071500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1394700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1985400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1654900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>1466000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>1410700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>1739200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>1464700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>6745800</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10112800</v>
+        <v>8186700</v>
       </c>
       <c r="E60" s="3">
-        <v>8405700</v>
+        <v>8684400</v>
       </c>
       <c r="F60" s="3">
-        <v>8872200</v>
+        <v>9207900</v>
       </c>
       <c r="G60" s="3">
-        <v>7967500</v>
+        <v>10525900</v>
       </c>
       <c r="H60" s="3">
+        <v>8749100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>9234600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>8293000</v>
+      </c>
+      <c r="K60" s="3">
         <v>10894600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>7655400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>7161900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>7292600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>5973900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>13651900</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4590100</v>
+        <v>5377400</v>
       </c>
       <c r="E61" s="3">
-        <v>5250700</v>
+        <v>5053300</v>
       </c>
       <c r="F61" s="3">
-        <v>3541500</v>
+        <v>4080200</v>
       </c>
       <c r="G61" s="3">
-        <v>4007700</v>
+        <v>4777600</v>
       </c>
       <c r="H61" s="3">
+        <v>5465200</v>
+      </c>
+      <c r="I61" s="3">
+        <v>3686100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4171400</v>
+      </c>
+      <c r="K61" s="3">
         <v>4397700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>5448300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>6527800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>7255600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>7136000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>7154700</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1147400</v>
+        <v>972300</v>
       </c>
       <c r="E62" s="3">
-        <v>1129800</v>
+        <v>1033900</v>
       </c>
       <c r="F62" s="3">
-        <v>958400</v>
+        <v>1158400</v>
       </c>
       <c r="G62" s="3">
-        <v>615100</v>
+        <v>1194300</v>
       </c>
       <c r="H62" s="3">
+        <v>1176000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>997500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>640200</v>
+      </c>
+      <c r="K62" s="3">
         <v>638800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>792800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>759700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>2842400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>2504100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>16115000</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2921,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2965,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +3009,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17841300</v>
+        <v>16714900</v>
       </c>
       <c r="E66" s="3">
-        <v>17055700</v>
+        <v>17102100</v>
       </c>
       <c r="F66" s="3">
-        <v>15452400</v>
+        <v>16683100</v>
       </c>
       <c r="G66" s="3">
-        <v>14616800</v>
+        <v>18570100</v>
       </c>
       <c r="H66" s="3">
+        <v>17752400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>16083600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>15213900</v>
+      </c>
+      <c r="K66" s="3">
         <v>17745500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>18918400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>19276000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>24361000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>22056100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>25798200</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +3077,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +3115,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +3159,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +3203,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +3247,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3719400</v>
+        <v>3043600</v>
       </c>
       <c r="E72" s="3">
-        <v>4052800</v>
+        <v>2829500</v>
       </c>
       <c r="F72" s="3">
-        <v>3996200</v>
+        <v>4230300</v>
       </c>
       <c r="G72" s="3">
-        <v>5281000</v>
+        <v>3905600</v>
       </c>
       <c r="H72" s="3">
+        <v>4246600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>4183800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>5518300</v>
+      </c>
+      <c r="K72" s="3">
         <v>4883300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>2822300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>2577700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>4924800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>4650100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>16701300</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +3335,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3379,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3423,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7685300</v>
+        <v>7248800</v>
       </c>
       <c r="E76" s="3">
-        <v>8189400</v>
+        <v>7052300</v>
       </c>
       <c r="F76" s="3">
-        <v>7873400</v>
+        <v>8377100</v>
       </c>
       <c r="G76" s="3">
-        <v>8000000</v>
+        <v>7999200</v>
       </c>
       <c r="H76" s="3">
+        <v>8524000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>8195000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>8326700</v>
+      </c>
+      <c r="K76" s="3">
         <v>7621800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>5684100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>5435500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>8100200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>7732200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>27582200</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3511,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>42643</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42277</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42094</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>607000</v>
+        <v>226300</v>
       </c>
       <c r="E81" s="3">
-        <v>-109600</v>
+        <v>-1189700</v>
       </c>
       <c r="F81" s="3">
-        <v>-211500</v>
+        <v>346900</v>
       </c>
       <c r="G81" s="3">
-        <v>397600</v>
+        <v>631800</v>
       </c>
       <c r="H81" s="3">
+        <v>-114100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-220100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>413900</v>
+      </c>
+      <c r="K81" s="3">
         <v>480400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>247100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-1788700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>146800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-2061000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>292300</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,43 +3628,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>658400</v>
+        <v>542700</v>
       </c>
       <c r="E83" s="3">
-        <v>612600</v>
+        <v>701000</v>
       </c>
       <c r="F83" s="3">
-        <v>584700</v>
+        <v>681700</v>
       </c>
       <c r="G83" s="3">
-        <v>405200</v>
+        <v>685300</v>
       </c>
       <c r="H83" s="3">
+        <v>637600</v>
+      </c>
+      <c r="I83" s="3">
+        <v>608600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>421800</v>
+      </c>
+      <c r="K83" s="3">
         <v>410800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>402000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>581200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>569500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>705700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>825100</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3710,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3754,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3798,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3842,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,43 +3886,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1832000</v>
+        <v>1728500</v>
       </c>
       <c r="E89" s="3">
-        <v>923300</v>
+        <v>1059600</v>
       </c>
       <c r="F89" s="3">
-        <v>2577400</v>
+        <v>1450100</v>
       </c>
       <c r="G89" s="3">
-        <v>2028600</v>
+        <v>1906800</v>
       </c>
       <c r="H89" s="3">
+        <v>961000</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2682600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2111400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1658800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>1145300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>211200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>1321300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>1026500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>705800</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,43 +3954,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1161300</v>
+        <v>-399300</v>
       </c>
       <c r="E91" s="3">
-        <v>-25300</v>
+        <v>-515100</v>
       </c>
       <c r="F91" s="3">
-        <v>3100</v>
+        <v>-561300</v>
       </c>
       <c r="G91" s="3">
-        <v>-6500</v>
+        <v>-1234000</v>
       </c>
       <c r="H91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-16300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-27600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-54100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-637300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-792200</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +4036,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,43 +4080,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1762700</v>
+        <v>-1389900</v>
       </c>
       <c r="E94" s="3">
-        <v>2500</v>
+        <v>-1487300</v>
       </c>
       <c r="F94" s="3">
-        <v>-680800</v>
+        <v>-120800</v>
       </c>
       <c r="G94" s="3">
-        <v>-8700</v>
+        <v>-403700</v>
       </c>
       <c r="H94" s="3">
+        <v>-1428400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-708600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-827200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-229200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>172300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-804600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-1004100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>398600</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,43 +4148,55 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1026100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>103400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1039300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-868900</v>
+        <v>-960400</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-1081700</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-904400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-68600</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-137400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="N96" s="3">
         <v>-100800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="O96" s="3">
         <v>-895100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="P96" s="3">
         <v>752100</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +4230,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +4274,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,109 +4318,145 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-902800</v>
+        <v>23400</v>
       </c>
       <c r="E100" s="3">
-        <v>299400</v>
+        <v>-2000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1548200</v>
+        <v>-1200000</v>
       </c>
       <c r="G100" s="3">
-        <v>-3173200</v>
+        <v>-939700</v>
       </c>
       <c r="H100" s="3">
+        <v>311600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-1611400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-3302900</v>
+      </c>
+      <c r="K100" s="3">
         <v>79700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>-729100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>-335800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-395000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-402100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-789200</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-16100</v>
+        <v>3600</v>
       </c>
       <c r="E101" s="3">
-        <v>3800</v>
+        <v>9100</v>
       </c>
       <c r="F101" s="3">
-        <v>13100</v>
+        <v>-7300</v>
       </c>
       <c r="G101" s="3">
+        <v>-441900</v>
+      </c>
+      <c r="H101" s="3">
+        <v>429100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>13600</v>
+      </c>
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="K101" s="3">
         <v>-10200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>6300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>3900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>543300</v>
+        <v>365700</v>
       </c>
       <c r="E102" s="3">
-        <v>-164000</v>
+        <v>-416800</v>
       </c>
       <c r="F102" s="3">
-        <v>361500</v>
+        <v>118300</v>
       </c>
       <c r="G102" s="3">
-        <v>-1155300</v>
+        <v>253400</v>
       </c>
       <c r="H102" s="3">
+        <v>141400</v>
+      </c>
+      <c r="I102" s="3">
+        <v>376200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1202500</v>
+      </c>
+      <c r="K102" s="3">
         <v>1108200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-14000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>50400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>122000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-375600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>315900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VEDL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VEDL_QTR_FIN.xlsx
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5021100</v>
+        <v>5013800</v>
       </c>
       <c r="E8" s="3">
-        <v>5591900</v>
+        <v>5583800</v>
       </c>
       <c r="F8" s="3">
-        <v>5903900</v>
+        <v>5895300</v>
       </c>
       <c r="G8" s="3">
-        <v>6368400</v>
+        <v>6359200</v>
       </c>
       <c r="H8" s="3">
-        <v>12245600</v>
+        <v>12227800</v>
       </c>
       <c r="I8" s="3">
-        <v>7049400</v>
+        <v>7039100</v>
       </c>
       <c r="J8" s="3">
-        <v>5466000</v>
+        <v>5458100</v>
       </c>
       <c r="K8" s="3">
         <v>5511700</v>
@@ -784,25 +784,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3860800</v>
+        <v>3855100</v>
       </c>
       <c r="E9" s="3">
-        <v>6382400</v>
+        <v>6373200</v>
       </c>
       <c r="F9" s="3">
-        <v>5030900</v>
+        <v>5023600</v>
       </c>
       <c r="G9" s="3">
-        <v>5210800</v>
+        <v>5203200</v>
       </c>
       <c r="H9" s="3">
-        <v>9627900</v>
+        <v>9613900</v>
       </c>
       <c r="I9" s="3">
-        <v>4928300</v>
+        <v>4921100</v>
       </c>
       <c r="J9" s="3">
-        <v>4175600</v>
+        <v>4169500</v>
       </c>
       <c r="K9" s="3">
         <v>3945700</v>
@@ -828,25 +828,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1160400</v>
+        <v>1158700</v>
       </c>
       <c r="E10" s="3">
-        <v>-790600</v>
+        <v>-789400</v>
       </c>
       <c r="F10" s="3">
-        <v>872900</v>
+        <v>871600</v>
       </c>
       <c r="G10" s="3">
-        <v>1157700</v>
+        <v>1156000</v>
       </c>
       <c r="H10" s="3">
-        <v>2617700</v>
+        <v>2613900</v>
       </c>
       <c r="I10" s="3">
-        <v>2121100</v>
+        <v>2118000</v>
       </c>
       <c r="J10" s="3">
-        <v>1290500</v>
+        <v>1288600</v>
       </c>
       <c r="K10" s="3">
         <v>1566000</v>
@@ -1081,25 +1081,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4093000</v>
+        <v>4087000</v>
       </c>
       <c r="E17" s="3">
-        <v>6720100</v>
+        <v>6710300</v>
       </c>
       <c r="F17" s="3">
-        <v>5325200</v>
+        <v>5317400</v>
       </c>
       <c r="G17" s="3">
-        <v>5411200</v>
+        <v>5403300</v>
       </c>
       <c r="H17" s="3">
-        <v>5124500</v>
+        <v>5117100</v>
       </c>
       <c r="I17" s="3">
-        <v>5114100</v>
+        <v>5106700</v>
       </c>
       <c r="J17" s="3">
-        <v>4394100</v>
+        <v>4387700</v>
       </c>
       <c r="K17" s="3">
         <v>4172600</v>
@@ -1125,25 +1125,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>928200</v>
+        <v>926800</v>
       </c>
       <c r="E18" s="3">
-        <v>-1128200</v>
+        <v>-1126500</v>
       </c>
       <c r="F18" s="3">
-        <v>578700</v>
+        <v>577800</v>
       </c>
       <c r="G18" s="3">
-        <v>957200</v>
+        <v>955900</v>
       </c>
       <c r="H18" s="3">
-        <v>7121100</v>
+        <v>7110800</v>
       </c>
       <c r="I18" s="3">
-        <v>1935200</v>
+        <v>1932400</v>
       </c>
       <c r="J18" s="3">
-        <v>1071900</v>
+        <v>1070300</v>
       </c>
       <c r="K18" s="3">
         <v>1339100</v>
@@ -1187,25 +1187,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>211600</v>
+        <v>211300</v>
       </c>
       <c r="E20" s="3">
-        <v>172600</v>
+        <v>172400</v>
       </c>
       <c r="F20" s="3">
-        <v>203500</v>
+        <v>203200</v>
       </c>
       <c r="G20" s="3">
-        <v>442900</v>
+        <v>442200</v>
       </c>
       <c r="H20" s="3">
-        <v>-5622300</v>
+        <v>-5614200</v>
       </c>
       <c r="I20" s="3">
-        <v>-930000</v>
+        <v>-928700</v>
       </c>
       <c r="J20" s="3">
-        <v>190900</v>
+        <v>190700</v>
       </c>
       <c r="K20" s="3">
         <v>192400</v>
@@ -1231,25 +1231,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1682400</v>
+        <v>1680000</v>
       </c>
       <c r="E21" s="3">
-        <v>-254600</v>
+        <v>-254200</v>
       </c>
       <c r="F21" s="3">
-        <v>1463900</v>
+        <v>1461800</v>
       </c>
       <c r="G21" s="3">
-        <v>2085500</v>
+        <v>2082400</v>
       </c>
       <c r="H21" s="3">
-        <v>2136400</v>
+        <v>2133300</v>
       </c>
       <c r="I21" s="3">
-        <v>1613800</v>
+        <v>1611400</v>
       </c>
       <c r="J21" s="3">
-        <v>1684600</v>
+        <v>1682100</v>
       </c>
       <c r="K21" s="3">
         <v>1942300</v>
@@ -1275,25 +1275,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>358900</v>
+        <v>358400</v>
       </c>
       <c r="E22" s="3">
-        <v>363700</v>
+        <v>363200</v>
       </c>
       <c r="F22" s="3">
-        <v>409200</v>
+        <v>408700</v>
       </c>
       <c r="G22" s="3">
-        <v>444000</v>
+        <v>443300</v>
       </c>
       <c r="H22" s="3">
-        <v>391400</v>
+        <v>390800</v>
       </c>
       <c r="I22" s="3">
-        <v>327500</v>
+        <v>327100</v>
       </c>
       <c r="J22" s="3">
-        <v>375900</v>
+        <v>375300</v>
       </c>
       <c r="K22" s="3">
         <v>362100</v>
@@ -1319,25 +1319,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>780800</v>
+        <v>779700</v>
       </c>
       <c r="E23" s="3">
-        <v>-1319300</v>
+        <v>-1317400</v>
       </c>
       <c r="F23" s="3">
-        <v>372900</v>
+        <v>372400</v>
       </c>
       <c r="G23" s="3">
-        <v>956100</v>
+        <v>954700</v>
       </c>
       <c r="H23" s="3">
-        <v>1107400</v>
+        <v>1105800</v>
       </c>
       <c r="I23" s="3">
-        <v>677700</v>
+        <v>676700</v>
       </c>
       <c r="J23" s="3">
-        <v>887000</v>
+        <v>885700</v>
       </c>
       <c r="K23" s="3">
         <v>1169400</v>
@@ -1363,25 +1363,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>374300</v>
+        <v>373800</v>
       </c>
       <c r="E24" s="3">
-        <v>-234000</v>
+        <v>-233700</v>
       </c>
       <c r="F24" s="3">
-        <v>-133100</v>
+        <v>-132900</v>
       </c>
       <c r="G24" s="3">
-        <v>127500</v>
+        <v>127300</v>
       </c>
       <c r="H24" s="3">
-        <v>443500</v>
+        <v>442900</v>
       </c>
       <c r="I24" s="3">
-        <v>665100</v>
+        <v>664200</v>
       </c>
       <c r="J24" s="3">
-        <v>248900</v>
+        <v>248500</v>
       </c>
       <c r="K24" s="3">
         <v>331700</v>
@@ -1451,25 +1451,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>406500</v>
+        <v>405900</v>
       </c>
       <c r="E26" s="3">
-        <v>-1085300</v>
+        <v>-1083700</v>
       </c>
       <c r="F26" s="3">
-        <v>506000</v>
+        <v>505200</v>
       </c>
       <c r="G26" s="3">
-        <v>828600</v>
+        <v>827400</v>
       </c>
       <c r="H26" s="3">
-        <v>53100</v>
+        <v>53000</v>
       </c>
       <c r="I26" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="J26" s="3">
-        <v>638100</v>
+        <v>637100</v>
       </c>
       <c r="K26" s="3">
         <v>837800</v>
@@ -1495,25 +1495,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>226300</v>
+        <v>226000</v>
       </c>
       <c r="E27" s="3">
-        <v>-1189700</v>
+        <v>-1187900</v>
       </c>
       <c r="F27" s="3">
-        <v>346900</v>
+        <v>346400</v>
       </c>
       <c r="G27" s="3">
-        <v>631800</v>
+        <v>630900</v>
       </c>
       <c r="H27" s="3">
-        <v>-114100</v>
+        <v>-114000</v>
       </c>
       <c r="I27" s="3">
-        <v>-220100</v>
+        <v>-219800</v>
       </c>
       <c r="J27" s="3">
-        <v>413900</v>
+        <v>413300</v>
       </c>
       <c r="K27" s="3">
         <v>480400</v>
@@ -1715,25 +1715,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-211600</v>
+        <v>-211300</v>
       </c>
       <c r="E32" s="3">
-        <v>-172600</v>
+        <v>-172400</v>
       </c>
       <c r="F32" s="3">
-        <v>-203500</v>
+        <v>-203200</v>
       </c>
       <c r="G32" s="3">
-        <v>-442900</v>
+        <v>-442200</v>
       </c>
       <c r="H32" s="3">
-        <v>5622300</v>
+        <v>5614200</v>
       </c>
       <c r="I32" s="3">
-        <v>930000</v>
+        <v>928700</v>
       </c>
       <c r="J32" s="3">
-        <v>-190900</v>
+        <v>-190700</v>
       </c>
       <c r="K32" s="3">
         <v>-192400</v>
@@ -1759,25 +1759,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>226300</v>
+        <v>226000</v>
       </c>
       <c r="E33" s="3">
-        <v>-1189700</v>
+        <v>-1187900</v>
       </c>
       <c r="F33" s="3">
-        <v>346900</v>
+        <v>346400</v>
       </c>
       <c r="G33" s="3">
-        <v>631800</v>
+        <v>630900</v>
       </c>
       <c r="H33" s="3">
-        <v>-114100</v>
+        <v>-114000</v>
       </c>
       <c r="I33" s="3">
-        <v>-220100</v>
+        <v>-219800</v>
       </c>
       <c r="J33" s="3">
-        <v>413900</v>
+        <v>413300</v>
       </c>
       <c r="K33" s="3">
         <v>480400</v>
@@ -1847,25 +1847,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>226300</v>
+        <v>226000</v>
       </c>
       <c r="E35" s="3">
-        <v>-1189700</v>
+        <v>-1187900</v>
       </c>
       <c r="F35" s="3">
-        <v>346900</v>
+        <v>346400</v>
       </c>
       <c r="G35" s="3">
-        <v>631800</v>
+        <v>630900</v>
       </c>
       <c r="H35" s="3">
-        <v>-114100</v>
+        <v>-114000</v>
       </c>
       <c r="I35" s="3">
-        <v>-220100</v>
+        <v>-219800</v>
       </c>
       <c r="J35" s="3">
-        <v>413900</v>
+        <v>413300</v>
       </c>
       <c r="K35" s="3">
         <v>480400</v>
@@ -1976,25 +1976,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>256000</v>
+        <v>255700</v>
       </c>
       <c r="E41" s="3">
-        <v>329200</v>
+        <v>328700</v>
       </c>
       <c r="F41" s="3">
-        <v>509300</v>
+        <v>508500</v>
       </c>
       <c r="G41" s="3">
-        <v>994700</v>
+        <v>993300</v>
       </c>
       <c r="H41" s="3">
-        <v>429200</v>
+        <v>428600</v>
       </c>
       <c r="I41" s="3">
-        <v>580600</v>
+        <v>579700</v>
       </c>
       <c r="J41" s="3">
-        <v>223700</v>
+        <v>223300</v>
       </c>
       <c r="K41" s="3">
         <v>1285000</v>
@@ -2020,25 +2020,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4619400</v>
+        <v>4612700</v>
       </c>
       <c r="E42" s="3">
-        <v>4869500</v>
+        <v>4862400</v>
       </c>
       <c r="F42" s="3">
-        <v>4385100</v>
+        <v>4378700</v>
       </c>
       <c r="G42" s="3">
-        <v>4019500</v>
+        <v>4013600</v>
       </c>
       <c r="H42" s="3">
-        <v>5044500</v>
+        <v>5037200</v>
       </c>
       <c r="I42" s="3">
-        <v>4348100</v>
+        <v>4341800</v>
       </c>
       <c r="J42" s="3">
-        <v>5278900</v>
+        <v>5271200</v>
       </c>
       <c r="K42" s="3">
         <v>6936300</v>
@@ -2064,25 +2064,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1709500</v>
+        <v>1707000</v>
       </c>
       <c r="E43" s="3">
-        <v>1145900</v>
+        <v>1144200</v>
       </c>
       <c r="F43" s="3">
-        <v>906900</v>
+        <v>905600</v>
       </c>
       <c r="G43" s="3">
-        <v>1376500</v>
+        <v>1374500</v>
       </c>
       <c r="H43" s="3">
-        <v>1356800</v>
+        <v>1354800</v>
       </c>
       <c r="I43" s="3">
-        <v>1159500</v>
+        <v>1157800</v>
       </c>
       <c r="J43" s="3">
-        <v>1003500</v>
+        <v>1002000</v>
       </c>
       <c r="K43" s="3">
         <v>796800</v>
@@ -2108,25 +2108,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1404400</v>
+        <v>1402400</v>
       </c>
       <c r="E44" s="3">
-        <v>1559900</v>
+        <v>1557600</v>
       </c>
       <c r="F44" s="3">
-        <v>1473700</v>
+        <v>1471600</v>
       </c>
       <c r="G44" s="3">
-        <v>1826000</v>
+        <v>1823400</v>
       </c>
       <c r="H44" s="3">
-        <v>1840000</v>
+        <v>1837400</v>
       </c>
       <c r="I44" s="3">
-        <v>1649600</v>
+        <v>1647200</v>
       </c>
       <c r="J44" s="3">
-        <v>1615300</v>
+        <v>1613000</v>
       </c>
       <c r="K44" s="3">
         <v>1285900</v>
@@ -2152,19 +2152,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16800</v>
+        <v>16700</v>
       </c>
       <c r="E45" s="3">
-        <v>109500</v>
+        <v>109300</v>
       </c>
       <c r="F45" s="3">
-        <v>41300</v>
+        <v>41200</v>
       </c>
       <c r="G45" s="3">
-        <v>26200</v>
+        <v>26100</v>
       </c>
       <c r="H45" s="3">
-        <v>69700</v>
+        <v>69600</v>
       </c>
       <c r="I45" s="3">
         <v>57100</v>
@@ -2196,25 +2196,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8006100</v>
+        <v>7994500</v>
       </c>
       <c r="E46" s="3">
-        <v>8013900</v>
+        <v>8002200</v>
       </c>
       <c r="F46" s="3">
-        <v>7316300</v>
+        <v>7305600</v>
       </c>
       <c r="G46" s="3">
-        <v>8242800</v>
+        <v>8230900</v>
       </c>
       <c r="H46" s="3">
-        <v>8740300</v>
+        <v>8727600</v>
       </c>
       <c r="I46" s="3">
-        <v>7794900</v>
+        <v>7783500</v>
       </c>
       <c r="J46" s="3">
-        <v>8159500</v>
+        <v>8147700</v>
       </c>
       <c r="K46" s="3">
         <v>10462300</v>
@@ -2240,25 +2240,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>423500</v>
+        <v>422800</v>
       </c>
       <c r="E47" s="3">
-        <v>376600</v>
+        <v>376000</v>
       </c>
       <c r="F47" s="3">
-        <v>366600</v>
+        <v>366000</v>
       </c>
       <c r="G47" s="3">
-        <v>1151800</v>
+        <v>1150100</v>
       </c>
       <c r="H47" s="3">
-        <v>496200</v>
+        <v>495500</v>
       </c>
       <c r="I47" s="3">
-        <v>488300</v>
+        <v>487600</v>
       </c>
       <c r="J47" s="3">
-        <v>417100</v>
+        <v>416500</v>
       </c>
       <c r="K47" s="3">
         <v>381700</v>
@@ -2284,25 +2284,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13379000</v>
+        <v>13359600</v>
       </c>
       <c r="E48" s="3">
-        <v>13550800</v>
+        <v>13531100</v>
       </c>
       <c r="F48" s="3">
-        <v>15442100</v>
+        <v>15419700</v>
       </c>
       <c r="G48" s="3">
-        <v>15394700</v>
+        <v>15372400</v>
       </c>
       <c r="H48" s="3">
-        <v>15451800</v>
+        <v>15429300</v>
       </c>
       <c r="I48" s="3">
-        <v>14419100</v>
+        <v>14398200</v>
       </c>
       <c r="J48" s="3">
-        <v>13335500</v>
+        <v>13316100</v>
       </c>
       <c r="K48" s="3">
         <v>12902400</v>
@@ -2328,25 +2328,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>106800</v>
+        <v>106700</v>
       </c>
       <c r="E49" s="3">
-        <v>107200</v>
+        <v>107000</v>
       </c>
       <c r="F49" s="3">
-        <v>109600</v>
+        <v>109400</v>
       </c>
       <c r="G49" s="3">
-        <v>106100</v>
+        <v>106000</v>
       </c>
       <c r="H49" s="3">
-        <v>111600</v>
+        <v>111400</v>
       </c>
       <c r="I49" s="3">
-        <v>114200</v>
+        <v>114100</v>
       </c>
       <c r="J49" s="3">
-        <v>82900</v>
+        <v>82800</v>
       </c>
       <c r="K49" s="3">
         <v>84300</v>
@@ -2460,25 +2460,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2048300</v>
+        <v>2045300</v>
       </c>
       <c r="E52" s="3">
-        <v>2106000</v>
+        <v>2102900</v>
       </c>
       <c r="F52" s="3">
-        <v>1825600</v>
+        <v>1822900</v>
       </c>
       <c r="G52" s="3">
-        <v>1673800</v>
+        <v>1671400</v>
       </c>
       <c r="H52" s="3">
-        <v>1476500</v>
+        <v>1474400</v>
       </c>
       <c r="I52" s="3">
-        <v>1462000</v>
+        <v>1459800</v>
       </c>
       <c r="J52" s="3">
-        <v>1545600</v>
+        <v>1543300</v>
       </c>
       <c r="K52" s="3">
         <v>1536600</v>
@@ -2548,25 +2548,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23963700</v>
+        <v>23928900</v>
       </c>
       <c r="E54" s="3">
-        <v>24154400</v>
+        <v>24119300</v>
       </c>
       <c r="F54" s="3">
-        <v>25060200</v>
+        <v>25023700</v>
       </c>
       <c r="G54" s="3">
-        <v>26569300</v>
+        <v>26530700</v>
       </c>
       <c r="H54" s="3">
-        <v>26276300</v>
+        <v>26238100</v>
       </c>
       <c r="I54" s="3">
-        <v>24278500</v>
+        <v>24243300</v>
       </c>
       <c r="J54" s="3">
-        <v>23540600</v>
+        <v>23506400</v>
       </c>
       <c r="K54" s="3">
         <v>25367300</v>
@@ -2628,25 +2628,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3642400</v>
+        <v>3637100</v>
       </c>
       <c r="E57" s="3">
-        <v>4274700</v>
+        <v>4268500</v>
       </c>
       <c r="F57" s="3">
-        <v>4105200</v>
+        <v>4099200</v>
       </c>
       <c r="G57" s="3">
-        <v>4902300</v>
+        <v>4895200</v>
       </c>
       <c r="H57" s="3">
-        <v>4010000</v>
+        <v>4004100</v>
       </c>
       <c r="I57" s="3">
-        <v>3523400</v>
+        <v>3518200</v>
       </c>
       <c r="J57" s="3">
-        <v>2801200</v>
+        <v>2797100</v>
       </c>
       <c r="K57" s="3">
         <v>3778200</v>
@@ -2672,25 +2672,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3162200</v>
+        <v>3157600</v>
       </c>
       <c r="E58" s="3">
-        <v>2920300</v>
+        <v>2916100</v>
       </c>
       <c r="F58" s="3">
-        <v>3610400</v>
+        <v>3605100</v>
       </c>
       <c r="G58" s="3">
-        <v>4335100</v>
+        <v>4328800</v>
       </c>
       <c r="H58" s="3">
-        <v>3667600</v>
+        <v>3662300</v>
       </c>
       <c r="I58" s="3">
-        <v>4316500</v>
+        <v>4310200</v>
       </c>
       <c r="J58" s="3">
-        <v>3506400</v>
+        <v>3501300</v>
       </c>
       <c r="K58" s="3">
         <v>5461500</v>
@@ -2716,25 +2716,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1382100</v>
+        <v>1380100</v>
       </c>
       <c r="E59" s="3">
-        <v>1489400</v>
+        <v>1487200</v>
       </c>
       <c r="F59" s="3">
-        <v>1492300</v>
+        <v>1490200</v>
       </c>
       <c r="G59" s="3">
-        <v>1288400</v>
+        <v>1286500</v>
       </c>
       <c r="H59" s="3">
-        <v>1071500</v>
+        <v>1070000</v>
       </c>
       <c r="I59" s="3">
-        <v>1394700</v>
+        <v>1392700</v>
       </c>
       <c r="J59" s="3">
-        <v>1985400</v>
+        <v>1982500</v>
       </c>
       <c r="K59" s="3">
         <v>1654900</v>
@@ -2760,25 +2760,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8186700</v>
+        <v>8174800</v>
       </c>
       <c r="E60" s="3">
-        <v>8684400</v>
+        <v>8671700</v>
       </c>
       <c r="F60" s="3">
-        <v>9207900</v>
+        <v>9194500</v>
       </c>
       <c r="G60" s="3">
-        <v>10525900</v>
+        <v>10510600</v>
       </c>
       <c r="H60" s="3">
-        <v>8749100</v>
+        <v>8736400</v>
       </c>
       <c r="I60" s="3">
-        <v>9234600</v>
+        <v>9221200</v>
       </c>
       <c r="J60" s="3">
-        <v>8293000</v>
+        <v>8280900</v>
       </c>
       <c r="K60" s="3">
         <v>10894600</v>
@@ -2804,25 +2804,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5377400</v>
+        <v>5369600</v>
       </c>
       <c r="E61" s="3">
-        <v>5053300</v>
+        <v>5045900</v>
       </c>
       <c r="F61" s="3">
-        <v>4080200</v>
+        <v>4074300</v>
       </c>
       <c r="G61" s="3">
-        <v>4777600</v>
+        <v>4770700</v>
       </c>
       <c r="H61" s="3">
-        <v>5465200</v>
+        <v>5457300</v>
       </c>
       <c r="I61" s="3">
-        <v>3686100</v>
+        <v>3680800</v>
       </c>
       <c r="J61" s="3">
-        <v>4171400</v>
+        <v>4165400</v>
       </c>
       <c r="K61" s="3">
         <v>4397700</v>
@@ -2848,25 +2848,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>972300</v>
+        <v>970900</v>
       </c>
       <c r="E62" s="3">
-        <v>1033900</v>
+        <v>1032400</v>
       </c>
       <c r="F62" s="3">
-        <v>1158400</v>
+        <v>1156700</v>
       </c>
       <c r="G62" s="3">
-        <v>1194300</v>
+        <v>1192500</v>
       </c>
       <c r="H62" s="3">
-        <v>1176000</v>
+        <v>1174300</v>
       </c>
       <c r="I62" s="3">
-        <v>997500</v>
+        <v>996100</v>
       </c>
       <c r="J62" s="3">
-        <v>640200</v>
+        <v>639300</v>
       </c>
       <c r="K62" s="3">
         <v>638800</v>
@@ -3024,25 +3024,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16714900</v>
+        <v>16690700</v>
       </c>
       <c r="E66" s="3">
-        <v>17102100</v>
+        <v>17077200</v>
       </c>
       <c r="F66" s="3">
-        <v>16683100</v>
+        <v>16658800</v>
       </c>
       <c r="G66" s="3">
-        <v>18570100</v>
+        <v>18543100</v>
       </c>
       <c r="H66" s="3">
-        <v>17752400</v>
+        <v>17726600</v>
       </c>
       <c r="I66" s="3">
-        <v>16083600</v>
+        <v>16060200</v>
       </c>
       <c r="J66" s="3">
-        <v>15213900</v>
+        <v>15191800</v>
       </c>
       <c r="K66" s="3">
         <v>17745500</v>
@@ -3262,25 +3262,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3043600</v>
+        <v>3039100</v>
       </c>
       <c r="E72" s="3">
-        <v>2829500</v>
+        <v>2825400</v>
       </c>
       <c r="F72" s="3">
-        <v>4230300</v>
+        <v>4224100</v>
       </c>
       <c r="G72" s="3">
-        <v>3905600</v>
+        <v>3899900</v>
       </c>
       <c r="H72" s="3">
-        <v>4246600</v>
+        <v>4240400</v>
       </c>
       <c r="I72" s="3">
-        <v>4183800</v>
+        <v>4177700</v>
       </c>
       <c r="J72" s="3">
-        <v>5518300</v>
+        <v>5510300</v>
       </c>
       <c r="K72" s="3">
         <v>4883300</v>
@@ -3438,25 +3438,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7248800</v>
+        <v>7238200</v>
       </c>
       <c r="E76" s="3">
-        <v>7052300</v>
+        <v>7042000</v>
       </c>
       <c r="F76" s="3">
-        <v>8377100</v>
+        <v>8364900</v>
       </c>
       <c r="G76" s="3">
-        <v>7999200</v>
+        <v>7987600</v>
       </c>
       <c r="H76" s="3">
-        <v>8524000</v>
+        <v>8511600</v>
       </c>
       <c r="I76" s="3">
-        <v>8195000</v>
+        <v>8183100</v>
       </c>
       <c r="J76" s="3">
-        <v>8326700</v>
+        <v>8314600</v>
       </c>
       <c r="K76" s="3">
         <v>7621800</v>
@@ -3575,25 +3575,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>226300</v>
+        <v>226000</v>
       </c>
       <c r="E81" s="3">
-        <v>-1189700</v>
+        <v>-1187900</v>
       </c>
       <c r="F81" s="3">
-        <v>346900</v>
+        <v>346400</v>
       </c>
       <c r="G81" s="3">
-        <v>631800</v>
+        <v>630900</v>
       </c>
       <c r="H81" s="3">
-        <v>-114100</v>
+        <v>-114000</v>
       </c>
       <c r="I81" s="3">
-        <v>-220100</v>
+        <v>-219800</v>
       </c>
       <c r="J81" s="3">
-        <v>413900</v>
+        <v>413300</v>
       </c>
       <c r="K81" s="3">
         <v>480400</v>
@@ -3637,25 +3637,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>542700</v>
+        <v>541900</v>
       </c>
       <c r="E83" s="3">
-        <v>701000</v>
+        <v>700000</v>
       </c>
       <c r="F83" s="3">
-        <v>681700</v>
+        <v>680700</v>
       </c>
       <c r="G83" s="3">
-        <v>685300</v>
+        <v>684300</v>
       </c>
       <c r="H83" s="3">
-        <v>637600</v>
+        <v>636700</v>
       </c>
       <c r="I83" s="3">
-        <v>608600</v>
+        <v>607700</v>
       </c>
       <c r="J83" s="3">
-        <v>421800</v>
+        <v>421200</v>
       </c>
       <c r="K83" s="3">
         <v>410800</v>
@@ -3901,25 +3901,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1728500</v>
+        <v>1726000</v>
       </c>
       <c r="E89" s="3">
-        <v>1059600</v>
+        <v>1058100</v>
       </c>
       <c r="F89" s="3">
-        <v>1450100</v>
+        <v>1448000</v>
       </c>
       <c r="G89" s="3">
-        <v>1906800</v>
+        <v>1904000</v>
       </c>
       <c r="H89" s="3">
-        <v>961000</v>
+        <v>959600</v>
       </c>
       <c r="I89" s="3">
-        <v>2682600</v>
+        <v>2678700</v>
       </c>
       <c r="J89" s="3">
-        <v>2111400</v>
+        <v>2108400</v>
       </c>
       <c r="K89" s="3">
         <v>1658800</v>
@@ -3963,16 +3963,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-399300</v>
+        <v>-398700</v>
       </c>
       <c r="E91" s="3">
-        <v>-515100</v>
+        <v>-514400</v>
       </c>
       <c r="F91" s="3">
-        <v>-561300</v>
+        <v>-560400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1234000</v>
+        <v>-1232200</v>
       </c>
       <c r="H91" s="3">
         <v>-1000</v>
@@ -4095,22 +4095,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1389900</v>
+        <v>-1387900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1487300</v>
+        <v>-1485200</v>
       </c>
       <c r="F94" s="3">
-        <v>-120800</v>
+        <v>-120600</v>
       </c>
       <c r="G94" s="3">
-        <v>-403700</v>
+        <v>-403100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1428400</v>
+        <v>-1426300</v>
       </c>
       <c r="I94" s="3">
-        <v>-708600</v>
+        <v>-707600</v>
       </c>
       <c r="J94" s="3">
         <v>-9000</v>
@@ -4166,16 +4166,16 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-960400</v>
+        <v>-959000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-1081700</v>
+        <v>-1080200</v>
       </c>
       <c r="J96" s="3">
-        <v>-904400</v>
+        <v>-903100</v>
       </c>
       <c r="K96" s="3">
         <v>-68600</v>
@@ -4339,19 +4339,19 @@
         <v>-2000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1200000</v>
+        <v>-1198300</v>
       </c>
       <c r="G100" s="3">
-        <v>-939700</v>
+        <v>-938300</v>
       </c>
       <c r="H100" s="3">
-        <v>311600</v>
+        <v>311200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1611400</v>
+        <v>-1609100</v>
       </c>
       <c r="J100" s="3">
-        <v>-3302900</v>
+        <v>-3298100</v>
       </c>
       <c r="K100" s="3">
         <v>79700</v>
@@ -4386,10 +4386,10 @@
         <v>-7300</v>
       </c>
       <c r="G101" s="3">
-        <v>-441900</v>
+        <v>-441300</v>
       </c>
       <c r="H101" s="3">
-        <v>429100</v>
+        <v>428400</v>
       </c>
       <c r="I101" s="3">
         <v>13600</v>
@@ -4421,25 +4421,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>365700</v>
+        <v>365200</v>
       </c>
       <c r="E102" s="3">
-        <v>-416800</v>
+        <v>-416200</v>
       </c>
       <c r="F102" s="3">
-        <v>118300</v>
+        <v>118100</v>
       </c>
       <c r="G102" s="3">
-        <v>253400</v>
+        <v>253100</v>
       </c>
       <c r="H102" s="3">
-        <v>141400</v>
+        <v>141200</v>
       </c>
       <c r="I102" s="3">
-        <v>376200</v>
+        <v>375700</v>
       </c>
       <c r="J102" s="3">
-        <v>-1202500</v>
+        <v>-1200700</v>
       </c>
       <c r="K102" s="3">
         <v>1108200</v>

--- a/AAII_Financials/Quarterly/VEDL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VEDL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>VEDL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42460</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42277</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42094</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5013800</v>
+        <v>6775100</v>
       </c>
       <c r="E8" s="3">
-        <v>5583800</v>
+        <v>4908000</v>
       </c>
       <c r="F8" s="3">
-        <v>5895300</v>
+        <v>5465900</v>
       </c>
       <c r="G8" s="3">
-        <v>6359200</v>
+        <v>5770800</v>
       </c>
       <c r="H8" s="3">
-        <v>12227800</v>
+        <v>6225000</v>
       </c>
       <c r="I8" s="3">
-        <v>7039100</v>
+        <v>11969700</v>
       </c>
       <c r="J8" s="3">
+        <v>6890600</v>
+      </c>
+      <c r="K8" s="3">
         <v>5458100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5511700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3969800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4053300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4813600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5081900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5026800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3855100</v>
+        <v>4770000</v>
       </c>
       <c r="E9" s="3">
-        <v>6373200</v>
+        <v>3773800</v>
       </c>
       <c r="F9" s="3">
-        <v>5023600</v>
+        <v>6238600</v>
       </c>
       <c r="G9" s="3">
-        <v>5203200</v>
+        <v>4917600</v>
       </c>
       <c r="H9" s="3">
-        <v>9613900</v>
+        <v>5093400</v>
       </c>
       <c r="I9" s="3">
-        <v>4921100</v>
+        <v>9411000</v>
       </c>
       <c r="J9" s="3">
+        <v>4817300</v>
+      </c>
+      <c r="K9" s="3">
         <v>4169500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3945700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3113700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8001200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3911700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9805500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3881700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1158700</v>
+        <v>2005100</v>
       </c>
       <c r="E10" s="3">
-        <v>-789400</v>
+        <v>1134200</v>
       </c>
       <c r="F10" s="3">
-        <v>871600</v>
+        <v>-772700</v>
       </c>
       <c r="G10" s="3">
-        <v>1156000</v>
+        <v>853200</v>
       </c>
       <c r="H10" s="3">
-        <v>2613900</v>
+        <v>1131600</v>
       </c>
       <c r="I10" s="3">
-        <v>2118000</v>
+        <v>2558800</v>
       </c>
       <c r="J10" s="3">
+        <v>2073300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1288600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1566000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>856100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-3948000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>901900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-4723500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1145100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +897,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,8 +942,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,31 +989,34 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>-9700</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1013,11 +1033,14 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>3919000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1060,8 +1083,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4087000</v>
+        <v>5152600</v>
       </c>
       <c r="E17" s="3">
-        <v>6710300</v>
+        <v>4000800</v>
       </c>
       <c r="F17" s="3">
-        <v>5317400</v>
+        <v>6568700</v>
       </c>
       <c r="G17" s="3">
-        <v>5403300</v>
+        <v>5205200</v>
       </c>
       <c r="H17" s="3">
-        <v>5117100</v>
+        <v>5289300</v>
       </c>
       <c r="I17" s="3">
-        <v>5106700</v>
+        <v>5009100</v>
       </c>
       <c r="J17" s="3">
+        <v>4998900</v>
+      </c>
+      <c r="K17" s="3">
         <v>4387700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4172600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3289600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8222900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4140000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10065000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4166900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>926800</v>
+        <v>1622500</v>
       </c>
       <c r="E18" s="3">
-        <v>-1126500</v>
+        <v>907200</v>
       </c>
       <c r="F18" s="3">
-        <v>577800</v>
+        <v>-1102800</v>
       </c>
       <c r="G18" s="3">
-        <v>955900</v>
+        <v>565600</v>
       </c>
       <c r="H18" s="3">
-        <v>7110800</v>
+        <v>935700</v>
       </c>
       <c r="I18" s="3">
-        <v>1932400</v>
+        <v>6960700</v>
       </c>
       <c r="J18" s="3">
+        <v>1891600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1070300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1339100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>680100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4169700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>673600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4983100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>859900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,228 +1214,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>211300</v>
+        <v>194500</v>
       </c>
       <c r="E20" s="3">
-        <v>172400</v>
+        <v>206800</v>
       </c>
       <c r="F20" s="3">
-        <v>203200</v>
+        <v>168700</v>
       </c>
       <c r="G20" s="3">
-        <v>442200</v>
+        <v>198900</v>
       </c>
       <c r="H20" s="3">
-        <v>-5614200</v>
+        <v>432900</v>
       </c>
       <c r="I20" s="3">
-        <v>-928700</v>
+        <v>-5929200</v>
       </c>
       <c r="J20" s="3">
+        <v>-909100</v>
+      </c>
+      <c r="K20" s="3">
         <v>190700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>192400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>322200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>214500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>318700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>349800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>113600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1680000</v>
+        <v>2378300</v>
       </c>
       <c r="E21" s="3">
-        <v>-254200</v>
+        <v>1644500</v>
       </c>
       <c r="F21" s="3">
-        <v>1461800</v>
+        <v>-248800</v>
       </c>
       <c r="G21" s="3">
-        <v>2082400</v>
+        <v>1430900</v>
       </c>
       <c r="H21" s="3">
-        <v>2133300</v>
+        <v>2038500</v>
       </c>
       <c r="I21" s="3">
-        <v>1611400</v>
+        <v>1654700</v>
       </c>
       <c r="J21" s="3">
+        <v>1577400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1682100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1942300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1404300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3374000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1561800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3927600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1798600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>358400</v>
+        <v>346500</v>
       </c>
       <c r="E22" s="3">
-        <v>363200</v>
+        <v>350800</v>
       </c>
       <c r="F22" s="3">
-        <v>408700</v>
+        <v>355500</v>
       </c>
       <c r="G22" s="3">
-        <v>443300</v>
+        <v>400000</v>
       </c>
       <c r="H22" s="3">
-        <v>390800</v>
+        <v>434000</v>
       </c>
       <c r="I22" s="3">
-        <v>327100</v>
+        <v>382600</v>
       </c>
       <c r="J22" s="3">
+        <v>320200</v>
+      </c>
+      <c r="K22" s="3">
         <v>375300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>362100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>366300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>329200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>418600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>403300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>546900</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>779700</v>
+        <v>1470400</v>
       </c>
       <c r="E23" s="3">
-        <v>-1317400</v>
+        <v>763200</v>
       </c>
       <c r="F23" s="3">
-        <v>372400</v>
+        <v>-1289600</v>
       </c>
       <c r="G23" s="3">
-        <v>954700</v>
+        <v>364500</v>
       </c>
       <c r="H23" s="3">
-        <v>1105800</v>
+        <v>934600</v>
       </c>
       <c r="I23" s="3">
-        <v>676700</v>
+        <v>648900</v>
       </c>
       <c r="J23" s="3">
+        <v>662400</v>
+      </c>
+      <c r="K23" s="3">
         <v>885700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1169400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>636100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4284400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>573700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5036600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>426600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>373800</v>
+        <v>-109200</v>
       </c>
       <c r="E24" s="3">
-        <v>-233700</v>
+        <v>365900</v>
       </c>
       <c r="F24" s="3">
-        <v>-132900</v>
+        <v>-228700</v>
       </c>
       <c r="G24" s="3">
-        <v>127300</v>
+        <v>-130100</v>
       </c>
       <c r="H24" s="3">
-        <v>442900</v>
+        <v>124700</v>
       </c>
       <c r="I24" s="3">
-        <v>664200</v>
+        <v>270100</v>
       </c>
       <c r="J24" s="3">
+        <v>650100</v>
+      </c>
+      <c r="K24" s="3">
         <v>248500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>331700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>171100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1592900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>252000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1627000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>134300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>405900</v>
+        <v>1579700</v>
       </c>
       <c r="E26" s="3">
-        <v>-1083700</v>
+        <v>397300</v>
       </c>
       <c r="F26" s="3">
-        <v>505200</v>
+        <v>-1060800</v>
       </c>
       <c r="G26" s="3">
-        <v>827400</v>
+        <v>494600</v>
       </c>
       <c r="H26" s="3">
-        <v>53000</v>
+        <v>809900</v>
       </c>
       <c r="I26" s="3">
-        <v>12500</v>
+        <v>215400</v>
       </c>
       <c r="J26" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K26" s="3">
         <v>637100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>837800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>465000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2691500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>321700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3409700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>610400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>226000</v>
+        <v>1297100</v>
       </c>
       <c r="E27" s="3">
-        <v>-1187900</v>
+        <v>221200</v>
       </c>
       <c r="F27" s="3">
-        <v>346400</v>
+        <v>-1162900</v>
       </c>
       <c r="G27" s="3">
-        <v>630900</v>
+        <v>339100</v>
       </c>
       <c r="H27" s="3">
-        <v>-114000</v>
+        <v>617600</v>
       </c>
       <c r="I27" s="3">
-        <v>-219800</v>
+        <v>51900</v>
       </c>
       <c r="J27" s="3">
+        <v>-215200</v>
+      </c>
+      <c r="K27" s="3">
         <v>413300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>480400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>247100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1788700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>146800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2061000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>292300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1621,8 +1682,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-211300</v>
+        <v>-194500</v>
       </c>
       <c r="E32" s="3">
-        <v>-172400</v>
+        <v>-206800</v>
       </c>
       <c r="F32" s="3">
-        <v>-203200</v>
+        <v>-168700</v>
       </c>
       <c r="G32" s="3">
-        <v>-442200</v>
+        <v>-198900</v>
       </c>
       <c r="H32" s="3">
-        <v>5614200</v>
+        <v>-432900</v>
       </c>
       <c r="I32" s="3">
-        <v>928700</v>
+        <v>5929200</v>
       </c>
       <c r="J32" s="3">
+        <v>909100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-190700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-192400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-322200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-214500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-318700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-349800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-113600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>226000</v>
+        <v>1297100</v>
       </c>
       <c r="E33" s="3">
-        <v>-1187900</v>
+        <v>221200</v>
       </c>
       <c r="F33" s="3">
-        <v>346400</v>
+        <v>-1162900</v>
       </c>
       <c r="G33" s="3">
-        <v>630900</v>
+        <v>339100</v>
       </c>
       <c r="H33" s="3">
-        <v>-114000</v>
+        <v>617600</v>
       </c>
       <c r="I33" s="3">
-        <v>-219800</v>
+        <v>51900</v>
       </c>
       <c r="J33" s="3">
+        <v>-215200</v>
+      </c>
+      <c r="K33" s="3">
         <v>413300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>480400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>247100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1788700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>146800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2061000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>292300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>226000</v>
+        <v>1297100</v>
       </c>
       <c r="E35" s="3">
-        <v>-1187900</v>
+        <v>221200</v>
       </c>
       <c r="F35" s="3">
-        <v>346400</v>
+        <v>-1162900</v>
       </c>
       <c r="G35" s="3">
-        <v>630900</v>
+        <v>339100</v>
       </c>
       <c r="H35" s="3">
-        <v>-114000</v>
+        <v>617600</v>
       </c>
       <c r="I35" s="3">
-        <v>-219800</v>
+        <v>51900</v>
       </c>
       <c r="J35" s="3">
+        <v>-215200</v>
+      </c>
+      <c r="K35" s="3">
         <v>413300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>480400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>247100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1788700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>146800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2061000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>292300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42460</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42277</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42094</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,404 +2056,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>255700</v>
+        <v>652800</v>
       </c>
       <c r="E41" s="3">
-        <v>328700</v>
+        <v>1038000</v>
       </c>
       <c r="F41" s="3">
-        <v>508500</v>
+        <v>680500</v>
       </c>
       <c r="G41" s="3">
-        <v>993300</v>
+        <v>1087900</v>
       </c>
       <c r="H41" s="3">
-        <v>428600</v>
+        <v>972300</v>
       </c>
       <c r="I41" s="3">
-        <v>579700</v>
+        <v>419600</v>
       </c>
       <c r="J41" s="3">
+        <v>567500</v>
+      </c>
+      <c r="K41" s="3">
         <v>223300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1285000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>261900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>275900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>246700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>80600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1568200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4612700</v>
+        <v>3789900</v>
       </c>
       <c r="E42" s="3">
-        <v>4862400</v>
+        <v>3727600</v>
       </c>
       <c r="F42" s="3">
-        <v>4378700</v>
+        <v>4401000</v>
       </c>
       <c r="G42" s="3">
-        <v>4013600</v>
+        <v>3696200</v>
       </c>
       <c r="H42" s="3">
-        <v>5037200</v>
+        <v>3928900</v>
       </c>
       <c r="I42" s="3">
-        <v>4341800</v>
+        <v>4930900</v>
       </c>
       <c r="J42" s="3">
+        <v>4250100</v>
+      </c>
+      <c r="K42" s="3">
         <v>5271200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6936300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6912100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7485100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8093700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>6879700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6580900</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1707000</v>
+        <v>1756500</v>
       </c>
       <c r="E43" s="3">
-        <v>1144200</v>
+        <v>1671000</v>
       </c>
       <c r="F43" s="3">
-        <v>905600</v>
+        <v>1120100</v>
       </c>
       <c r="G43" s="3">
-        <v>1374500</v>
+        <v>886400</v>
       </c>
       <c r="H43" s="3">
-        <v>1354800</v>
+        <v>1345500</v>
       </c>
       <c r="I43" s="3">
-        <v>1157800</v>
+        <v>1326200</v>
       </c>
       <c r="J43" s="3">
+        <v>1133300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1002000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>796800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1230700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1048300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1432800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1430000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1669000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1402400</v>
+        <v>1338400</v>
       </c>
       <c r="E44" s="3">
-        <v>1557600</v>
+        <v>1372800</v>
       </c>
       <c r="F44" s="3">
-        <v>1471600</v>
+        <v>1524700</v>
       </c>
       <c r="G44" s="3">
-        <v>1823400</v>
+        <v>1440500</v>
       </c>
       <c r="H44" s="3">
-        <v>1837400</v>
+        <v>1784900</v>
       </c>
       <c r="I44" s="3">
-        <v>1647200</v>
+        <v>1798600</v>
       </c>
       <c r="J44" s="3">
+        <v>1612400</v>
+      </c>
+      <c r="K44" s="3">
         <v>1613000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1285900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1216500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1074300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1299600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1208700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1855800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16700</v>
+        <v>24100</v>
       </c>
       <c r="E45" s="3">
-        <v>109300</v>
+        <v>16400</v>
       </c>
       <c r="F45" s="3">
-        <v>41200</v>
+        <v>107000</v>
       </c>
       <c r="G45" s="3">
-        <v>26100</v>
+        <v>40400</v>
       </c>
       <c r="H45" s="3">
-        <v>69600</v>
+        <v>25600</v>
       </c>
       <c r="I45" s="3">
-        <v>57100</v>
+        <v>68100</v>
       </c>
       <c r="J45" s="3">
+        <v>55900</v>
+      </c>
+      <c r="K45" s="3">
         <v>38200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>158300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>56200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>97300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>104200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>73800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>148900</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7994500</v>
+        <v>7561700</v>
       </c>
       <c r="E46" s="3">
-        <v>8002200</v>
+        <v>7825800</v>
       </c>
       <c r="F46" s="3">
-        <v>7305600</v>
+        <v>7833300</v>
       </c>
       <c r="G46" s="3">
-        <v>8230900</v>
+        <v>7151400</v>
       </c>
       <c r="H46" s="3">
-        <v>8727600</v>
+        <v>8057100</v>
       </c>
       <c r="I46" s="3">
-        <v>7783500</v>
+        <v>8543400</v>
       </c>
       <c r="J46" s="3">
+        <v>7619300</v>
+      </c>
+      <c r="K46" s="3">
         <v>8147700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10462300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9677500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9980800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11176900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9672900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9967100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>422800</v>
+        <v>390200</v>
       </c>
       <c r="E47" s="3">
-        <v>376000</v>
+        <v>413900</v>
       </c>
       <c r="F47" s="3">
-        <v>366000</v>
+        <v>368100</v>
       </c>
       <c r="G47" s="3">
-        <v>1150100</v>
+        <v>358300</v>
       </c>
       <c r="H47" s="3">
-        <v>495500</v>
+        <v>1125900</v>
       </c>
       <c r="I47" s="3">
-        <v>487600</v>
+        <v>485000</v>
       </c>
       <c r="J47" s="3">
+        <v>477300</v>
+      </c>
+      <c r="K47" s="3">
         <v>416500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>381700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>342600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>322900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>373300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>369600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1327100</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13359600</v>
+        <v>13056200</v>
       </c>
       <c r="E48" s="3">
-        <v>13531100</v>
+        <v>13077600</v>
       </c>
       <c r="F48" s="3">
-        <v>15419700</v>
+        <v>13245500</v>
       </c>
       <c r="G48" s="3">
-        <v>15372400</v>
+        <v>15094200</v>
       </c>
       <c r="H48" s="3">
-        <v>15429300</v>
+        <v>15047900</v>
       </c>
       <c r="I48" s="3">
-        <v>14398200</v>
+        <v>15103700</v>
       </c>
       <c r="J48" s="3">
+        <v>14094300</v>
+      </c>
+      <c r="K48" s="3">
         <v>13316100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12902400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13113800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12961900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19534500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18389500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>48197300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>106700</v>
+        <v>100600</v>
       </c>
       <c r="E49" s="3">
-        <v>107000</v>
+        <v>104400</v>
       </c>
       <c r="F49" s="3">
-        <v>109400</v>
+        <v>104800</v>
       </c>
       <c r="G49" s="3">
-        <v>106000</v>
+        <v>107100</v>
       </c>
       <c r="H49" s="3">
-        <v>111400</v>
+        <v>103700</v>
       </c>
       <c r="I49" s="3">
-        <v>114100</v>
+        <v>109100</v>
       </c>
       <c r="J49" s="3">
+        <v>111700</v>
+      </c>
+      <c r="K49" s="3">
         <v>82800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>84300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>81800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>83300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>92000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>90900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>102700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,52 +2571,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2045300</v>
+        <v>2712700</v>
       </c>
       <c r="E52" s="3">
-        <v>2102900</v>
+        <v>2002100</v>
       </c>
       <c r="F52" s="3">
-        <v>1822900</v>
+        <v>2058500</v>
       </c>
       <c r="G52" s="3">
-        <v>1671400</v>
+        <v>1784500</v>
       </c>
       <c r="H52" s="3">
-        <v>1474400</v>
+        <v>1636100</v>
       </c>
       <c r="I52" s="3">
-        <v>1459800</v>
+        <v>1443200</v>
       </c>
       <c r="J52" s="3">
+        <v>1429000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1543300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1536600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1386700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1362600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1284400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1265400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>37261400</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23928900</v>
+        <v>23821400</v>
       </c>
       <c r="E54" s="3">
-        <v>24119300</v>
+        <v>23423800</v>
       </c>
       <c r="F54" s="3">
-        <v>25023700</v>
+        <v>23610200</v>
       </c>
       <c r="G54" s="3">
-        <v>26530700</v>
+        <v>24495600</v>
       </c>
       <c r="H54" s="3">
-        <v>26238100</v>
+        <v>25970700</v>
       </c>
       <c r="I54" s="3">
-        <v>24243300</v>
+        <v>25684300</v>
       </c>
       <c r="J54" s="3">
+        <v>23731600</v>
+      </c>
+      <c r="K54" s="3">
         <v>23506400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25367300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24602500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24711600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32461200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29788300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>36732600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,272 +2752,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3637100</v>
+        <v>4161800</v>
       </c>
       <c r="E57" s="3">
-        <v>4268500</v>
+        <v>3560400</v>
       </c>
       <c r="F57" s="3">
-        <v>4099200</v>
+        <v>4178400</v>
       </c>
       <c r="G57" s="3">
-        <v>4895200</v>
+        <v>4012700</v>
       </c>
       <c r="H57" s="3">
-        <v>4004100</v>
+        <v>4791900</v>
       </c>
       <c r="I57" s="3">
-        <v>3518200</v>
+        <v>3919600</v>
       </c>
       <c r="J57" s="3">
+        <v>3444000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2797100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3778200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2823500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3340800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3035700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2287400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2595400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3157600</v>
+        <v>3638100</v>
       </c>
       <c r="E58" s="3">
-        <v>2916100</v>
+        <v>4299800</v>
       </c>
       <c r="F58" s="3">
-        <v>3605100</v>
+        <v>4224400</v>
       </c>
       <c r="G58" s="3">
-        <v>4328800</v>
+        <v>4865300</v>
       </c>
       <c r="H58" s="3">
-        <v>3662300</v>
+        <v>5329000</v>
       </c>
       <c r="I58" s="3">
-        <v>4310200</v>
+        <v>4484900</v>
       </c>
       <c r="J58" s="3">
+        <v>5485900</v>
+      </c>
+      <c r="K58" s="3">
         <v>3501300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5461500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3365800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2410400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2517800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2221800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2994800</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1380100</v>
+        <v>122300</v>
       </c>
       <c r="E59" s="3">
-        <v>1487200</v>
+        <v>142200</v>
       </c>
       <c r="F59" s="3">
-        <v>1490200</v>
+        <v>85900</v>
       </c>
       <c r="G59" s="3">
-        <v>1286500</v>
+        <v>122500</v>
       </c>
       <c r="H59" s="3">
-        <v>1070000</v>
+        <v>167800</v>
       </c>
       <c r="I59" s="3">
-        <v>1392700</v>
+        <v>147400</v>
       </c>
       <c r="J59" s="3">
+        <v>96700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1982500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1654900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1466000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1410700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1739200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1464700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6745800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8174800</v>
+        <v>7922200</v>
       </c>
       <c r="E60" s="3">
-        <v>8671700</v>
+        <v>8002300</v>
       </c>
       <c r="F60" s="3">
-        <v>9194500</v>
+        <v>8488700</v>
       </c>
       <c r="G60" s="3">
-        <v>10510600</v>
+        <v>9000400</v>
       </c>
       <c r="H60" s="3">
-        <v>8736400</v>
+        <v>10288700</v>
       </c>
       <c r="I60" s="3">
-        <v>9221200</v>
+        <v>8552000</v>
       </c>
       <c r="J60" s="3">
+        <v>9026500</v>
+      </c>
+      <c r="K60" s="3">
         <v>8280900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10894600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7655400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7161900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7292600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5973900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13651900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5369600</v>
+        <v>5105900</v>
       </c>
       <c r="E61" s="3">
-        <v>5045900</v>
+        <v>5256300</v>
       </c>
       <c r="F61" s="3">
-        <v>4074300</v>
+        <v>4939400</v>
       </c>
       <c r="G61" s="3">
-        <v>4770700</v>
+        <v>3988300</v>
       </c>
       <c r="H61" s="3">
-        <v>5457300</v>
+        <v>4670000</v>
       </c>
       <c r="I61" s="3">
-        <v>3680800</v>
+        <v>5342100</v>
       </c>
       <c r="J61" s="3">
+        <v>3603100</v>
+      </c>
+      <c r="K61" s="3">
         <v>4165400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4397700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5448300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6527800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7255600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7136000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7154700</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>970900</v>
+        <v>920300</v>
       </c>
       <c r="E62" s="3">
-        <v>1032400</v>
+        <v>950400</v>
       </c>
       <c r="F62" s="3">
-        <v>1156700</v>
+        <v>1010600</v>
       </c>
       <c r="G62" s="3">
-        <v>1192500</v>
+        <v>1132300</v>
       </c>
       <c r="H62" s="3">
-        <v>1174300</v>
+        <v>1167400</v>
       </c>
       <c r="I62" s="3">
-        <v>996100</v>
+        <v>1149500</v>
       </c>
       <c r="J62" s="3">
+        <v>975000</v>
+      </c>
+      <c r="K62" s="3">
         <v>639300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>638800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>792800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>759700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2842400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2504100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16115000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16690700</v>
+        <v>15958600</v>
       </c>
       <c r="E66" s="3">
-        <v>17077200</v>
+        <v>16338400</v>
       </c>
       <c r="F66" s="3">
-        <v>16658800</v>
+        <v>16716800</v>
       </c>
       <c r="G66" s="3">
-        <v>18543100</v>
+        <v>16307200</v>
       </c>
       <c r="H66" s="3">
-        <v>17726600</v>
+        <v>18151700</v>
       </c>
       <c r="I66" s="3">
-        <v>16060200</v>
+        <v>17352400</v>
       </c>
       <c r="J66" s="3">
+        <v>15721200</v>
+      </c>
+      <c r="K66" s="3">
         <v>15191800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17745500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18918400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19276000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>24361000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22056100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>25798200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3039100</v>
+        <v>3711400</v>
       </c>
       <c r="E72" s="3">
-        <v>2825400</v>
+        <v>2975000</v>
       </c>
       <c r="F72" s="3">
-        <v>4224100</v>
+        <v>2765700</v>
       </c>
       <c r="G72" s="3">
-        <v>3899900</v>
+        <v>4134900</v>
       </c>
       <c r="H72" s="3">
-        <v>4240400</v>
+        <v>3817600</v>
       </c>
       <c r="I72" s="3">
-        <v>4177700</v>
+        <v>4150900</v>
       </c>
       <c r="J72" s="3">
+        <v>4089500</v>
+      </c>
+      <c r="K72" s="3">
         <v>5510300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4883300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2822300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2577700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4924800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4650100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16701300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7238200</v>
+        <v>7862800</v>
       </c>
       <c r="E76" s="3">
-        <v>7042000</v>
+        <v>7085400</v>
       </c>
       <c r="F76" s="3">
-        <v>8364900</v>
+        <v>6893400</v>
       </c>
       <c r="G76" s="3">
-        <v>7987600</v>
+        <v>8188300</v>
       </c>
       <c r="H76" s="3">
-        <v>8511600</v>
+        <v>7819000</v>
       </c>
       <c r="I76" s="3">
-        <v>8183100</v>
+        <v>8331900</v>
       </c>
       <c r="J76" s="3">
+        <v>8010400</v>
+      </c>
+      <c r="K76" s="3">
         <v>8314600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7621800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5684100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5435500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8100200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7732200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27582200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42460</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42277</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42094</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>226000</v>
+        <v>1297100</v>
       </c>
       <c r="E81" s="3">
-        <v>-1187900</v>
+        <v>221200</v>
       </c>
       <c r="F81" s="3">
-        <v>346400</v>
+        <v>-1162900</v>
       </c>
       <c r="G81" s="3">
-        <v>630900</v>
+        <v>339100</v>
       </c>
       <c r="H81" s="3">
-        <v>-114000</v>
+        <v>617600</v>
       </c>
       <c r="I81" s="3">
-        <v>-219800</v>
+        <v>51900</v>
       </c>
       <c r="J81" s="3">
+        <v>-215200</v>
+      </c>
+      <c r="K81" s="3">
         <v>413300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>480400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>247100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1788700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>146800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2061000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>292300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,52 +3829,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>541900</v>
+        <v>561400</v>
       </c>
       <c r="E83" s="3">
-        <v>700000</v>
+        <v>530500</v>
       </c>
       <c r="F83" s="3">
-        <v>680700</v>
+        <v>685200</v>
       </c>
       <c r="G83" s="3">
-        <v>684300</v>
+        <v>666400</v>
       </c>
       <c r="H83" s="3">
-        <v>636700</v>
+        <v>669900</v>
       </c>
       <c r="I83" s="3">
-        <v>607700</v>
+        <v>623300</v>
       </c>
       <c r="J83" s="3">
+        <v>594900</v>
+      </c>
+      <c r="K83" s="3">
         <v>421200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>410800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>402000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>581200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>569500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>705700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>825100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1726000</v>
+        <v>2291000</v>
       </c>
       <c r="E89" s="3">
-        <v>1058100</v>
+        <v>1689600</v>
       </c>
       <c r="F89" s="3">
-        <v>1448000</v>
+        <v>1035800</v>
       </c>
       <c r="G89" s="3">
-        <v>1904000</v>
+        <v>1417400</v>
       </c>
       <c r="H89" s="3">
-        <v>959600</v>
+        <v>1863900</v>
       </c>
       <c r="I89" s="3">
-        <v>2678700</v>
+        <v>939400</v>
       </c>
       <c r="J89" s="3">
+        <v>2622200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2108400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1658800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1145300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>211200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1321300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1026500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>705800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,52 +4177,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-398700</v>
+        <v>-535500</v>
       </c>
       <c r="E91" s="3">
-        <v>-514400</v>
+        <v>-390300</v>
       </c>
       <c r="F91" s="3">
-        <v>-560400</v>
+        <v>-503500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1232200</v>
+        <v>-548600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1000</v>
+        <v>-1181500</v>
       </c>
       <c r="I91" s="3">
-        <v>3200</v>
+        <v>-25700</v>
       </c>
       <c r="J91" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-54100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-637300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-792200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4316,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1387900</v>
+        <v>-892400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1485200</v>
+        <v>-1358600</v>
       </c>
       <c r="F94" s="3">
-        <v>-120600</v>
+        <v>-1453800</v>
       </c>
       <c r="G94" s="3">
-        <v>-403100</v>
+        <v>-118000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1426300</v>
+        <v>-394600</v>
       </c>
       <c r="I94" s="3">
-        <v>-707600</v>
+        <v>-1396200</v>
       </c>
       <c r="J94" s="3">
+        <v>-692600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-9000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-827200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-229200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>172300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-804600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1004100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>398600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,8 +4384,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4166,37 +4400,40 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-959000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-2073700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1080200</v>
+        <v>1135000</v>
       </c>
       <c r="J96" s="3">
+        <v>-1057400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-903100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-68600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-137400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-100800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-895100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>752100</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,136 +4570,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>23400</v>
+        <v>-1789800</v>
       </c>
       <c r="E100" s="3">
+        <v>22900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2000</v>
       </c>
-      <c r="F100" s="3">
-        <v>-1198300</v>
-      </c>
       <c r="G100" s="3">
-        <v>-938300</v>
+        <v>-1173000</v>
       </c>
       <c r="H100" s="3">
-        <v>311200</v>
+        <v>-918500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1609100</v>
+        <v>304600</v>
       </c>
       <c r="J100" s="3">
+        <v>-1575100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3298100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>79700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-729100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-335800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-395000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-402100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-789200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E101" s="3">
         <v>3600</v>
       </c>
-      <c r="E101" s="3">
-        <v>9100</v>
-      </c>
       <c r="F101" s="3">
-        <v>-7300</v>
+        <v>8900</v>
       </c>
       <c r="G101" s="3">
-        <v>-441300</v>
+        <v>-7100</v>
       </c>
       <c r="H101" s="3">
-        <v>428400</v>
+        <v>-16400</v>
       </c>
       <c r="I101" s="3">
-        <v>13600</v>
+        <v>3800</v>
       </c>
       <c r="J101" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-10200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>365200</v>
+        <v>-385200</v>
       </c>
       <c r="E102" s="3">
-        <v>-416200</v>
+        <v>357500</v>
       </c>
       <c r="F102" s="3">
-        <v>118100</v>
+        <v>-407400</v>
       </c>
       <c r="G102" s="3">
-        <v>253100</v>
+        <v>115600</v>
       </c>
       <c r="H102" s="3">
-        <v>141200</v>
+        <v>552700</v>
       </c>
       <c r="I102" s="3">
-        <v>375700</v>
+        <v>-166800</v>
       </c>
       <c r="J102" s="3">
+        <v>367700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1200700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1108200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-14000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>50400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>122000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-375600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>315900</v>
       </c>
     </row>
